--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="116">
   <si>
     <t>Doi</t>
   </si>
@@ -477,6 +477,74 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,   Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,   Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,   Faris Jamal%AlMutairi%faris11300@gmail.com%1,   Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,   David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
+Methods
+id="Par2"&gt;Twenty-seven countries were randomly selected from the different continents.
+ The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
+ The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
+Results
+id="Par3"&gt;The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
+ The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
+Conclusions
+id="Par4"&gt;The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
+</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,    Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,    Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,    Faris Jamal%AlMutairi%faris11300@gmail.com%1,    Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,    David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
+Methods
+Twenty-seven countries were randomly selected from the different continents.
+ The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
+ The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
+Results
+id="Par3"&gt;The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
+ The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
+Conclusions
+id="Par4"&gt;The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
+</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,     Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,     Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,     Faris Jamal%AlMutairi%faris11300@gmail.com%1,     Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,     David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
+Methods
+Twenty-seven countries were randomly selected from the different continents.
+ The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
+ The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
+Results
+The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
+ The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
+Conclusions
+id="Par4"&gt;The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
+</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,      Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,      Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,      Faris Jamal%AlMutairi%faris11300@gmail.com%1,      Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,      David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
+Methods
+Twenty-seven countries were randomly selected from the different continents.
+ The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
+ The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
+Results
+The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
+ The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
+Conclusions
+The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
+</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,       Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,       Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,       Faris Jamal%AlMutairi%faris11300@gmail.com%1,       Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,       David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1206,10 @@
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
   <si>
     <t>Doi</t>
   </si>
@@ -477,74 +477,6 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,   Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,   Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,   Faris Jamal%AlMutairi%faris11300@gmail.com%1,   Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,   David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
-Methods
-id="Par2"&gt;Twenty-seven countries were randomly selected from the different continents.
- The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
- The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
-Results
-id="Par3"&gt;The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
- The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
-Conclusions
-id="Par4"&gt;The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
-</t>
-  </si>
-  <si>
-    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,    Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,    Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,    Faris Jamal%AlMutairi%faris11300@gmail.com%1,    Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,    David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
-Methods
-Twenty-seven countries were randomly selected from the different continents.
- The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
- The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
-Results
-id="Par3"&gt;The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
- The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
-Conclusions
-id="Par4"&gt;The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
-</t>
-  </si>
-  <si>
-    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,     Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,     Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,     Faris Jamal%AlMutairi%faris11300@gmail.com%1,     Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,     David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
-Methods
-Twenty-seven countries were randomly selected from the different continents.
- The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
- The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
-Results
-The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
- The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
-Conclusions
-id="Par4"&gt;The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
-</t>
-  </si>
-  <si>
-    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,      Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,      Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,      Faris Jamal%AlMutairi%faris11300@gmail.com%1,      Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,      David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
-Methods
-Twenty-seven countries were randomly selected from the different continents.
- The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
- The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
-Results
-The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
- The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
-Conclusions
-The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
-</t>
-  </si>
-  <si>
-    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,       Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,       Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,       Faris Jamal%AlMutairi%faris11300@gmail.com%1,       Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,       David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1138,10 @@
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="125">
   <si>
     <t>Doi</t>
   </si>
@@ -477,6 +477,57 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,   Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,   Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,   Faris Jamal%AlMutairi%faris11300@gmail.com%1,   Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,   David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,    Nikki%Lam%NULL%2,    Nikki%Lam%NULL%0,    Benjamin%Woo%NULL%1,    Kylie%Zeng%kzeng2@student.touro.edu%2,    Kylie%Zeng%kzeng2@student.touro.edu%0,    Stephanie N%Bernardo%NULL%2,    Stephanie N%Bernardo%NULL%0,    Weldon E%Havins%NULL%2,    Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,    Guy%Fagherazzi%NULL%1,    Juan%Yang%NULL%0,    Juan%Yang%NULL%0,    Claire%Wang%NULL%1,    Céline%Mavrot%NULL%1,    Carlos K H%Wong%NULL%2,    Carlos K H%Wong%NULL%0,    Janet Y H%Wong%NULL%2,    Janet Y H%Wong%NULL%0,    Eric H M%Tang%NULL%2,    Eric H M%Tang%NULL%0,    Chi Ho%Au%NULL%2,    Chi Ho%Au%NULL%0,    Kristy T K%Lau%NULL%2,    Kristy T K%Lau%NULL%0,    Abraham K C%Wai%awai@hku.hk%2,    Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,    Guy%Harling%NULL%2,    Guy%Harling%NULL%0,    Zahra%Reynolds%NULL%2,    Zahra%Reynolds%NULL%0,    Rebecca F.%Gilbert%NULL%1,    Sebastien%Haneuse%NULL%2,    Sebastien%Haneuse%NULL%0,    Atheendar S.%Venkataramani%NULL%2,    Atheendar S.%Venkataramani%NULL%0,    Alexander C.%Tsai%NULL%2,    Alexander C.%Tsai%NULL%0,    Donald A.%Redelmeier%NULL%3,    Donald A.%Redelmeier%NULL%0,    Donald A.%Redelmeier%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,     A.% Dsida%null%1,     D.% Zastrow%null%1,     B.% Harper%null%1,     A.% Morris%null%1,     A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,     C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,    Jie%Gao%NULL%1,    Hua%Wang%NULL%0,    Xiao-long%Wu%NULL%1,    Qin-fang%Yuan%NULL%1,    Fei-yu%Guo%NULL%1,    Zhi-jie%Zhang%NULL%1,    Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,    Sheikh Taslim%Ali%NULL%1,    Tiffany W Y%Ng%NULL%1,    Tim K%Tsang%NULL%1,    Julian C M%Li%NULL%1,    Min Whui%Fong%NULL%1,    Qiuyan%Liao%NULL%1,    Mike YW%Kwan%NULL%1,    So Lun%Lee%NULL%1,    Susan S%Chiu%NULL%1,    Joseph T%Wu%NULL%1,    Peng%Wu%pengwu@hku.hk%1,    Gabriel M%Leung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,    Shuk-Ching%Wong%NULL%1,    Vivien Wai-Man%Chuang%NULL%1,    Simon Yung-Chun%So%NULL%1,    Jonathan Hon-Kwan%Chen%NULL%1,    Siddharth%Sridhar%NULL%1,    Kelvin Kai-Wang%To%NULL%0,    Jasper Fuk-Woo%Chan%NULL%0,    Ivan Fan-Ngai%Hung%NULL%0,    Pak-Leung%Ho%NULL%1,    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,    Pham Nguyen Hong%Ngoc%NULL%1,    Nguyen Minh%Hai%NULL%1,    Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,    Hak Jun%Hyun%NULL%1,    Jin Gu%Yun%NULL%1,    Ji Yun%Noh%NULL%1,    Hee Jin%Cheong%NULL%0,    Woo Joo%Kim%NULL%0,    Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,    Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,    Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,    Faris Jamal%AlMutairi%faris11300@gmail.com%1,    Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,    David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
   </si>
 </sst>
 </file>
@@ -840,6 +891,9 @@
       <c r="H1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -855,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -865,6 +919,9 @@
       </c>
       <c r="H2" t="s">
         <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -881,7 +938,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -891,6 +948,9 @@
       </c>
       <c r="H3" t="s">
         <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4">
@@ -907,7 +967,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -917,6 +977,9 @@
       </c>
       <c r="H4" t="s">
         <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -933,16 +996,19 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -959,16 +1025,19 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7">
@@ -996,6 +1065,9 @@
       <c r="H7" t="s">
         <v>56</v>
       </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
@@ -1011,7 +1083,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1021,6 +1093,9 @@
       </c>
       <c r="H8" t="s">
         <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -1037,7 +1112,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1047,6 +1122,9 @@
       </c>
       <c r="H9" t="s">
         <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1063,7 +1141,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1073,6 +1151,9 @@
       </c>
       <c r="H10" t="s">
         <v>70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -1089,7 +1170,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1099,6 +1180,9 @@
       </c>
       <c r="H11" t="s">
         <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -1115,7 +1199,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1125,6 +1209,9 @@
       </c>
       <c r="H12" t="s">
         <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1141,7 +1228,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1151,6 +1238,9 @@
       </c>
       <c r="H13" t="s">
         <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14">

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="158">
   <si>
     <t>Doi</t>
   </si>
@@ -528,6 +528,105 @@
   </si>
   <si>
     <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,     Nikki%Lam%NULL%2,     Nikki%Lam%NULL%0,     Benjamin%Woo%NULL%1,     Kylie%Zeng%kzeng2@student.touro.edu%2,     Kylie%Zeng%kzeng2@student.touro.edu%0,     Stephanie N%Bernardo%NULL%2,     Stephanie N%Bernardo%NULL%0,     Weldon E%Havins%NULL%2,     Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,     Guy%Fagherazzi%NULL%1,     Juan%Yang%NULL%0,     Juan%Yang%NULL%0,     Claire%Wang%NULL%1,     Céline%Mavrot%NULL%1,     Carlos K H%Wong%NULL%2,     Carlos K H%Wong%NULL%0,     Janet Y H%Wong%NULL%2,     Janet Y H%Wong%NULL%0,     Eric H M%Tang%NULL%2,     Eric H M%Tang%NULL%0,     Chi Ho%Au%NULL%2,     Chi Ho%Au%NULL%0,     Kristy T K%Lau%NULL%2,     Kristy T K%Lau%NULL%0,     Abraham K C%Wai%awai@hku.hk%2,     Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,     Guy%Harling%NULL%2,     Guy%Harling%NULL%0,     Zahra%Reynolds%NULL%2,     Zahra%Reynolds%NULL%0,     Rebecca F.%Gilbert%NULL%1,     Sebastien%Haneuse%NULL%2,     Sebastien%Haneuse%NULL%0,     Atheendar S.%Venkataramani%NULL%2,     Atheendar S.%Venkataramani%NULL%0,     Alexander C.%Tsai%NULL%2,     Alexander C.%Tsai%NULL%0,     Donald A.%Redelmeier%NULL%3,     Donald A.%Redelmeier%NULL%0,     Donald A.%Redelmeier%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,      A.% Dsida%null%1,      D.% Zastrow%null%1,      B.% Harper%null%1,      A.% Morris%null%1,      A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,      C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,     Jie%Gao%NULL%1,     Hua%Wang%NULL%0,     Xiao-long%Wu%NULL%1,     Qin-fang%Yuan%NULL%1,     Fei-yu%Guo%NULL%1,     Zhi-jie%Zhang%NULL%1,     Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,     Sheikh Taslim%Ali%NULL%0,     Tiffany W Y%Ng%NULL%0,     Tim K%Tsang%NULL%0,     Julian C M%Li%NULL%0,     Min Whui%Fong%NULL%0,     Qiuyan%Liao%NULL%0,     Mike YW%Kwan%NULL%0,     So Lun%Lee%NULL%0,     Susan S%Chiu%NULL%0,     Joseph T%Wu%NULL%0,     Peng%Wu%pengwu@hku.hk%0,     Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,     Shuk-Ching%Wong%NULL%1,     Vivien Wai-Man%Chuang%NULL%1,     Simon Yung-Chun%So%NULL%1,     Jonathan Hon-Kwan%Chen%NULL%1,     Siddharth%Sridhar%NULL%1,     Kelvin Kai-Wang%To%NULL%0,     Jasper Fuk-Woo%Chan%NULL%0,     Ivan Fan-Ngai%Hung%NULL%0,     Pak-Leung%Ho%NULL%1,     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,     Pham Nguyen Hong%Ngoc%NULL%1,     Nguyen Minh%Hai%NULL%1,     Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,     Hak Jun%Hyun%NULL%1,     Jin Gu%Yun%NULL%1,     Ji Yun%Noh%NULL%1,     Hee Jin%Cheong%NULL%0,     Woo Joo%Kim%NULL%0,     Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,     Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,     Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,     Faris Jamal%AlMutairi%faris11300@gmail.com%1,     Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,     David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,      Nikki%Lam%NULL%2,      Nikki%Lam%NULL%0,      Benjamin%Woo%NULL%1,      Kylie%Zeng%kzeng2@student.touro.edu%2,      Kylie%Zeng%kzeng2@student.touro.edu%0,      Stephanie N%Bernardo%NULL%2,      Stephanie N%Bernardo%NULL%0,      Weldon E%Havins%NULL%2,      Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,      Guy%Fagherazzi%NULL%1,      Juan%Yang%NULL%0,      Juan%Yang%NULL%0,      Claire%Wang%NULL%1,      Céline%Mavrot%NULL%1,      Carlos K H%Wong%NULL%2,      Carlos K H%Wong%NULL%0,      Janet Y H%Wong%NULL%2,      Janet Y H%Wong%NULL%0,      Eric H M%Tang%NULL%2,      Eric H M%Tang%NULL%0,      Chi Ho%Au%NULL%2,      Chi Ho%Au%NULL%0,      Kristy T K%Lau%NULL%2,      Kristy T K%Lau%NULL%0,      Abraham K C%Wai%awai@hku.hk%2,      Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,      Guy%Harling%NULL%2,      Guy%Harling%NULL%0,      Zahra%Reynolds%NULL%2,      Zahra%Reynolds%NULL%0,      Rebecca F.%Gilbert%NULL%1,      Sebastien%Haneuse%NULL%2,      Sebastien%Haneuse%NULL%0,      Atheendar S.%Venkataramani%NULL%2,      Atheendar S.%Venkataramani%NULL%0,      Alexander C.%Tsai%NULL%2,      Alexander C.%Tsai%NULL%0,      Donald A.%Redelmeier%NULL%3,      Donald A.%Redelmeier%NULL%0,      Donald A.%Redelmeier%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,       A.% Dsida%null%1,       D.% Zastrow%null%1,       B.% Harper%null%1,       A.% Morris%null%1,       A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,       C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,      Jie%Gao%NULL%1,      Hua%Wang%NULL%0,      Xiao-long%Wu%NULL%1,      Qin-fang%Yuan%NULL%1,      Fei-yu%Guo%NULL%1,      Zhi-jie%Zhang%NULL%1,      Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,      Sheikh Taslim%Ali%NULL%0,      Tiffany W Y%Ng%NULL%0,      Tim K%Tsang%NULL%0,      Julian C M%Li%NULL%0,      Min Whui%Fong%NULL%0,      Qiuyan%Liao%NULL%0,      Mike YW%Kwan%NULL%0,      So Lun%Lee%NULL%0,      Susan S%Chiu%NULL%0,      Joseph T%Wu%NULL%0,      Peng%Wu%pengwu@hku.hk%0,      Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,      Shuk-Ching%Wong%NULL%1,      Vivien Wai-Man%Chuang%NULL%1,      Simon Yung-Chun%So%NULL%1,      Jonathan Hon-Kwan%Chen%NULL%1,      Siddharth%Sridhar%NULL%1,      Kelvin Kai-Wang%To%NULL%0,      Jasper Fuk-Woo%Chan%NULL%0,      Ivan Fan-Ngai%Hung%NULL%0,      Pak-Leung%Ho%NULL%1,      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,      Pham Nguyen Hong%Ngoc%NULL%1,      Nguyen Minh%Hai%NULL%1,      Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,      Hak Jun%Hyun%NULL%1,      Jin Gu%Yun%NULL%1,      Ji Yun%Noh%NULL%1,      Hee Jin%Cheong%NULL%0,      Woo Joo%Kim%NULL%0,      Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,      Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,      Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,      Faris Jamal%AlMutairi%faris11300@gmail.com%1,      Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,      David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,       Nikki%Lam%NULL%2,       Nikki%Lam%NULL%0,       Benjamin%Woo%NULL%1,       Kylie%Zeng%kzeng2@student.touro.edu%2,       Kylie%Zeng%kzeng2@student.touro.edu%0,       Stephanie N%Bernardo%NULL%2,       Stephanie N%Bernardo%NULL%0,       Weldon E%Havins%NULL%2,       Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,       Guy%Fagherazzi%NULL%1,       Juan%Yang%NULL%0,       Juan%Yang%NULL%0,       Claire%Wang%NULL%1,       Céline%Mavrot%NULL%1,       Carlos K H%Wong%NULL%2,       Carlos K H%Wong%NULL%0,       Janet Y H%Wong%NULL%2,       Janet Y H%Wong%NULL%0,       Eric H M%Tang%NULL%2,       Eric H M%Tang%NULL%0,       Chi Ho%Au%NULL%2,       Chi Ho%Au%NULL%0,       Kristy T K%Lau%NULL%2,       Kristy T K%Lau%NULL%0,       Abraham K C%Wai%awai@hku.hk%2,       Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,       Guy%Harling%NULL%2,       Guy%Harling%NULL%0,       Zahra%Reynolds%NULL%2,       Zahra%Reynolds%NULL%0,       Rebecca F.%Gilbert%NULL%1,       Sebastien%Haneuse%NULL%2,       Sebastien%Haneuse%NULL%0,       Atheendar S.%Venkataramani%NULL%2,       Atheendar S.%Venkataramani%NULL%0,       Alexander C.%Tsai%NULL%2,       Alexander C.%Tsai%NULL%0,       Donald A.%Redelmeier%NULL%3,       Donald A.%Redelmeier%NULL%0,       Donald A.%Redelmeier%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,        A.% Dsida%null%1,        D.% Zastrow%null%1,        B.% Harper%null%1,        A.% Morris%null%1,        A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,        C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,       Jie%Gao%NULL%1,       Hua%Wang%NULL%0,       Xiao-long%Wu%NULL%1,       Qin-fang%Yuan%NULL%1,       Fei-yu%Guo%NULL%1,       Zhi-jie%Zhang%NULL%1,       Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,       Sheikh Taslim%Ali%NULL%0,       Tiffany W Y%Ng%NULL%0,       Tim K%Tsang%NULL%0,       Julian C M%Li%NULL%0,       Min Whui%Fong%NULL%0,       Qiuyan%Liao%NULL%0,       Mike YW%Kwan%NULL%0,       So Lun%Lee%NULL%0,       Susan S%Chiu%NULL%0,       Joseph T%Wu%NULL%0,       Peng%Wu%pengwu@hku.hk%0,       Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,       Shuk-Ching%Wong%NULL%1,       Vivien Wai-Man%Chuang%NULL%1,       Simon Yung-Chun%So%NULL%1,       Jonathan Hon-Kwan%Chen%NULL%1,       Siddharth%Sridhar%NULL%1,       Kelvin Kai-Wang%To%NULL%0,       Jasper Fuk-Woo%Chan%NULL%0,       Ivan Fan-Ngai%Hung%NULL%0,       Pak-Leung%Ho%NULL%1,       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,       Pham Nguyen Hong%Ngoc%NULL%1,       Nguyen Minh%Hai%NULL%1,       Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,       Hak Jun%Hyun%NULL%1,       Jin Gu%Yun%NULL%1,       Ji Yun%Noh%NULL%1,       Hee Jin%Cheong%NULL%0,       Woo Joo%Kim%NULL%0,       Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,       Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,       Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,       Faris Jamal%AlMutairi%faris11300@gmail.com%1,       Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,       David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -909,7 +1008,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -938,7 +1037,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -967,7 +1066,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -996,7 +1095,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1025,7 +1124,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1083,7 +1182,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1112,7 +1211,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1141,7 +1240,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1170,7 +1269,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1199,7 +1298,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1228,7 +1327,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="185">
   <si>
     <t>Doi</t>
   </si>
@@ -627,6 +627,87 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,       Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,       Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,       Faris Jamal%AlMutairi%faris11300@gmail.com%1,       Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,       David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,        Nikki%Lam%NULL%2,        Nikki%Lam%NULL%0,        Benjamin%Woo%NULL%1,        Kylie%Zeng%kzeng2@student.touro.edu%2,        Kylie%Zeng%kzeng2@student.touro.edu%0,        Stephanie N%Bernardo%NULL%2,        Stephanie N%Bernardo%NULL%0,        Weldon E%Havins%NULL%2,        Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,        Guy%Fagherazzi%NULL%1,        Juan%Yang%NULL%0,        Juan%Yang%NULL%0,        Claire%Wang%NULL%1,        Céline%Mavrot%NULL%1,        Carlos K H%Wong%NULL%2,        Carlos K H%Wong%NULL%0,        Janet Y H%Wong%NULL%2,        Janet Y H%Wong%NULL%0,        Eric H M%Tang%NULL%2,        Eric H M%Tang%NULL%0,        Chi Ho%Au%NULL%2,        Chi Ho%Au%NULL%0,        Kristy T K%Lau%NULL%2,        Kristy T K%Lau%NULL%0,        Abraham K C%Wai%awai@hku.hk%2,        Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,        Guy%Harling%NULL%2,        Guy%Harling%NULL%0,        Zahra%Reynolds%NULL%2,        Zahra%Reynolds%NULL%0,        Rebecca F.%Gilbert%NULL%1,        Sebastien%Haneuse%NULL%2,        Sebastien%Haneuse%NULL%0,        Atheendar S.%Venkataramani%NULL%2,        Atheendar S.%Venkataramani%NULL%0,        Alexander C.%Tsai%NULL%2,        Alexander C.%Tsai%NULL%0,        Donald A.%Redelmeier%NULL%3,        Donald A.%Redelmeier%NULL%0,        Donald A.%Redelmeier%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,         A.% Dsida%null%1,         D.% Zastrow%null%1,         B.% Harper%null%1,         A.% Morris%null%1,         A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,         C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>"Association of Public Health Interventions With the Epidemiology of the COVID-19 Outbreak in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1, Li%Liu%xref no email%1, Chaolong%Wang%xref no email%1, Huan%Guo%xref no email%1, Xingjie%Hao%xref no email%1, Qi%Wang%xref no email%1, Jiao%Huang%xref no email%1, Na%He%xref no email%1, Hongjie%Yu%xref no email%0, Xihong%Lin%xref no email%1, Sheng%Wei%xref no email%1, Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,        Jie%Gao%NULL%1,        Hua%Wang%NULL%1,        Xiao-long%Wu%NULL%1,        Qin-fang%Yuan%NULL%1,        Fei-yu%Guo%NULL%1,        Zhi-jie%Zhang%NULL%1,        Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,        Sheikh Taslim%Ali%NULL%0,        Tiffany W Y%Ng%NULL%0,        Tim K%Tsang%NULL%0,        Julian C M%Li%NULL%0,        Min Whui%Fong%NULL%0,        Qiuyan%Liao%NULL%0,        Mike YW%Kwan%NULL%0,        So Lun%Lee%NULL%0,        Susan S%Chiu%NULL%0,        Joseph T%Wu%NULL%0,        Peng%Wu%pengwu@hku.hk%0,        Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,        Shuk-Ching%Wong%NULL%1,        Vivien Wai-Man%Chuang%NULL%1,        Simon Yung-Chun%So%NULL%1,        Jonathan Hon-Kwan%Chen%NULL%1,        Siddharth%Sridhar%NULL%1,        Kelvin Kai-Wang%To%NULL%0,        Jasper Fuk-Woo%Chan%NULL%0,        Ivan Fan-Ngai%Hung%NULL%0,        Pak-Leung%Ho%NULL%1,        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,        Pham Nguyen Hong%Ngoc%NULL%1,        Nguyen Minh%Hai%NULL%1,        Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,        Hak Jun%Hyun%NULL%1,        Jin Gu%Yun%NULL%1,        Ji Yun%Noh%NULL%1,        Hee Jin%Cheong%NULL%0,        Woo Joo%Kim%NULL%0,        Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,        Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,        Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,        Faris Jamal%AlMutairi%faris11300@gmail.com%1,        Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,        David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,         Nikki%Lam%NULL%2,         Nikki%Lam%NULL%0,         Benjamin%Woo%NULL%1,         Kylie%Zeng%kzeng2@student.touro.edu%2,         Kylie%Zeng%kzeng2@student.touro.edu%0,         Stephanie N%Bernardo%NULL%2,         Stephanie N%Bernardo%NULL%0,         Weldon E%Havins%NULL%2,         Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,         Guy%Fagherazzi%NULL%1,         Juan%Yang%NULL%0,         Juan%Yang%NULL%0,         Claire%Wang%NULL%1,         Céline%Mavrot%NULL%1,         Carlos K H%Wong%NULL%2,         Carlos K H%Wong%NULL%0,         Janet Y H%Wong%NULL%2,         Janet Y H%Wong%NULL%0,         Eric H M%Tang%NULL%2,         Eric H M%Tang%NULL%0,         Chi Ho%Au%NULL%2,         Chi Ho%Au%NULL%0,         Kristy T K%Lau%NULL%2,         Kristy T K%Lau%NULL%0,         Abraham K C%Wai%awai@hku.hk%2,         Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,         Guy%Harling%NULL%2,         Guy%Harling%NULL%0,         Zahra%Reynolds%NULL%2,         Zahra%Reynolds%NULL%0,         Rebecca F.%Gilbert%NULL%1,         Sebastien%Haneuse%NULL%2,         Sebastien%Haneuse%NULL%0,         Atheendar S.%Venkataramani%NULL%2,         Atheendar S.%Venkataramani%NULL%0,         Alexander C.%Tsai%NULL%2,         Alexander C.%Tsai%NULL%0,         Donald A.%Redelmeier%NULL%3,         Donald A.%Redelmeier%NULL%0,         Donald A.%Redelmeier%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,          A.% Dsida%null%1,          D.% Zastrow%null%1,          B.% Harper%null%1,          A.% Morris%null%1,          A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,          C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,  Li%Liu%xref no email%1,  Chaolong%Wang%xref no email%1,  Huan%Guo%xref no email%1,  Xingjie%Hao%xref no email%1,  Qi%Wang%xref no email%1,  Jiao%Huang%xref no email%1,  Na%He%xref no email%1,  Hongjie%Yu%xref no email%1,  Xihong%Lin%xref no email%1,  Sheng%Wei%xref no email%1,  Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,         Jie%Gao%NULL%1,         Hua%Wang%NULL%1,         Xiao-long%Wu%NULL%1,         Qin-fang%Yuan%NULL%1,         Fei-yu%Guo%NULL%1,         Zhi-jie%Zhang%NULL%1,         Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,         Sheikh Taslim%Ali%NULL%0,         Tiffany W Y%Ng%NULL%0,         Tim K%Tsang%NULL%0,         Julian C M%Li%NULL%0,         Min Whui%Fong%NULL%0,         Qiuyan%Liao%NULL%0,         Mike YW%Kwan%NULL%0,         So Lun%Lee%NULL%0,         Susan S%Chiu%NULL%0,         Joseph T%Wu%NULL%0,         Peng%Wu%pengwu@hku.hk%0,         Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,         Shuk-Ching%Wong%NULL%1,         Vivien Wai-Man%Chuang%NULL%1,         Simon Yung-Chun%So%NULL%1,         Jonathan Hon-Kwan%Chen%NULL%1,         Siddharth%Sridhar%NULL%1,         Kelvin Kai-Wang%To%NULL%0,         Jasper Fuk-Woo%Chan%NULL%0,         Ivan Fan-Ngai%Hung%NULL%0,         Pak-Leung%Ho%NULL%1,         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,         Pham Nguyen Hong%Ngoc%NULL%1,         Nguyen Minh%Hai%NULL%1,         Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,         Hak Jun%Hyun%NULL%1,         Jin Gu%Yun%NULL%1,         Ji Yun%Noh%NULL%1,         Hee Jin%Cheong%NULL%0,         Woo Joo%Kim%NULL%0,         Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,         Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,         Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,         Faris Jamal%AlMutairi%faris11300@gmail.com%1,         Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,         David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1089,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1037,7 +1118,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1066,7 +1147,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1095,7 +1176,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1124,7 +1205,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1147,22 +1228,22 @@
         <v>43931.0</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="I7" t="s">
         <v>116</v>
@@ -1182,7 +1263,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1211,7 +1292,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1240,7 +1321,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1269,7 +1350,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1298,7 +1379,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1327,7 +1408,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="209">
   <si>
     <t>Doi</t>
   </si>
@@ -708,6 +708,78 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,         Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,         Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,         Faris Jamal%AlMutairi%faris11300@gmail.com%1,         Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,         David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,          Nikki%Lam%NULL%2,          Nikki%Lam%NULL%0,          Benjamin%Woo%NULL%1,          Kylie%Zeng%kzeng2@student.touro.edu%2,          Kylie%Zeng%kzeng2@student.touro.edu%0,          Stephanie N%Bernardo%NULL%2,          Stephanie N%Bernardo%NULL%0,          Weldon E%Havins%NULL%2,          Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,          Guy%Fagherazzi%NULL%1,          Juan%Yang%NULL%0,          Juan%Yang%NULL%0,          Claire%Wang%NULL%1,          Céline%Mavrot%NULL%1,          Carlos K H%Wong%NULL%2,          Carlos K H%Wong%NULL%0,          Janet Y H%Wong%NULL%2,          Janet Y H%Wong%NULL%0,          Eric H M%Tang%NULL%2,          Eric H M%Tang%NULL%0,          Chi Ho%Au%NULL%2,          Chi Ho%Au%NULL%0,          Kristy T K%Lau%NULL%2,          Kristy T K%Lau%NULL%0,          Abraham K C%Wai%awai@hku.hk%2,          Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,          Guy%Harling%NULL%2,          Guy%Harling%NULL%0,          Zahra%Reynolds%NULL%2,          Zahra%Reynolds%NULL%0,          Rebecca F.%Gilbert%NULL%1,          Sebastien%Haneuse%NULL%2,          Sebastien%Haneuse%NULL%0,          Atheendar S.%Venkataramani%NULL%2,          Atheendar S.%Venkataramani%NULL%0,          Alexander C.%Tsai%NULL%2,          Alexander C.%Tsai%NULL%0,          Donald A.%Redelmeier%NULL%3,          Donald A.%Redelmeier%NULL%0,          Donald A.%Redelmeier%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,           A.% Dsida%null%1,           D.% Zastrow%null%1,           B.% Harper%null%1,           A.% Morris%null%1,           A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,           C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,   Li%Liu%xref no email%1,   Chaolong%Wang%xref no email%1,   Huan%Guo%xref no email%1,   Xingjie%Hao%xref no email%1,   Qi%Wang%xref no email%1,   Jiao%Huang%xref no email%1,   Na%He%xref no email%1,   Hongjie%Yu%xref no email%1,   Xihong%Lin%xref no email%1,   Sheng%Wei%xref no email%1,   Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,          Jie%Gao%NULL%1,          Hua%Wang%NULL%1,          Xiao-long%Wu%NULL%1,          Qin-fang%Yuan%NULL%1,          Fei-yu%Guo%NULL%1,          Zhi-jie%Zhang%NULL%1,          Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,          Sheikh Taslim%Ali%NULL%0,          Tiffany W Y%Ng%NULL%0,          Tim K%Tsang%NULL%0,          Julian C M%Li%NULL%0,          Min Whui%Fong%NULL%0,          Qiuyan%Liao%NULL%0,          Mike YW%Kwan%NULL%0,          So Lun%Lee%NULL%0,          Susan S%Chiu%NULL%0,          Joseph T%Wu%NULL%0,          Peng%Wu%pengwu@hku.hk%0,          Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,          Shuk-Ching%Wong%NULL%1,          Vivien Wai-Man%Chuang%NULL%1,          Simon Yung-Chun%So%NULL%1,          Jonathan Hon-Kwan%Chen%NULL%1,          Siddharth%Sridhar%NULL%1,          Kelvin Kai-Wang%To%NULL%0,          Jasper Fuk-Woo%Chan%NULL%0,          Ivan Fan-Ngai%Hung%NULL%0,          Pak-Leung%Ho%NULL%1,          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,          Pham Nguyen Hong%Ngoc%NULL%1,          Nguyen Minh%Hai%NULL%1,          Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,          Hak Jun%Hyun%NULL%1,          Jin Gu%Yun%NULL%1,          Ji Yun%Noh%NULL%1,          Hee Jin%Cheong%NULL%0,          Woo Joo%Kim%NULL%0,          Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,          Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,          Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,          Faris Jamal%AlMutairi%faris11300@gmail.com%1,          Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,          David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,           Nikki%Lam%NULL%2,           Nikki%Lam%NULL%0,           Benjamin%Woo%NULL%1,           Kylie%Zeng%kzeng2@student.touro.edu%2,           Kylie%Zeng%kzeng2@student.touro.edu%0,           Stephanie N%Bernardo%NULL%2,           Stephanie N%Bernardo%NULL%0,           Weldon E%Havins%NULL%2,           Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,           Guy%Fagherazzi%NULL%1,           Juan%Yang%NULL%0,           Juan%Yang%NULL%0,           Claire%Wang%NULL%1,           Céline%Mavrot%NULL%1,           Carlos K H%Wong%NULL%2,           Carlos K H%Wong%NULL%0,           Janet Y H%Wong%NULL%2,           Janet Y H%Wong%NULL%0,           Eric H M%Tang%NULL%2,           Eric H M%Tang%NULL%0,           Chi Ho%Au%NULL%2,           Chi Ho%Au%NULL%0,           Kristy T K%Lau%NULL%2,           Kristy T K%Lau%NULL%0,           Abraham K C%Wai%awai@hku.hk%2,           Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,           Guy%Harling%NULL%2,           Guy%Harling%NULL%0,           Zahra%Reynolds%NULL%2,           Zahra%Reynolds%NULL%0,           Rebecca F.%Gilbert%NULL%1,           Sebastien%Haneuse%NULL%2,           Sebastien%Haneuse%NULL%0,           Atheendar S.%Venkataramani%NULL%2,           Atheendar S.%Venkataramani%NULL%0,           Alexander C.%Tsai%NULL%2,           Alexander C.%Tsai%NULL%0,           Donald A.%Redelmeier%NULL%3,           Donald A.%Redelmeier%NULL%0,           Donald A.%Redelmeier%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,            A.% Dsida%null%1,            D.% Zastrow%null%1,            B.% Harper%null%1,            A.% Morris%null%1,            A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,            C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,    Li%Liu%xref no email%0,    Chaolong%Wang%xref no email%1,    Huan%Guo%xref no email%1,    Xingjie%Hao%xref no email%1,    Qi%Wang%xref no email%1,    Jiao%Huang%xref no email%1,    Na%He%xref no email%1,    Hongjie%Yu%xref no email%1,    Xihong%Lin%xref no email%1,    Sheng%Wei%xref no email%1,    Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,           Jie%Gao%NULL%1,           Hua%Wang%NULL%0,           Xiao-long%Wu%NULL%1,           Qin-fang%Yuan%NULL%1,           Fei-yu%Guo%NULL%1,           Zhi-jie%Zhang%NULL%1,           Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,           Sheikh Taslim%Ali%NULL%0,           Tiffany W Y%Ng%NULL%0,           Tim K%Tsang%NULL%0,           Julian C M%Li%NULL%0,           Min Whui%Fong%NULL%0,           Qiuyan%Liao%NULL%0,           Mike YW%Kwan%NULL%0,           So Lun%Lee%NULL%0,           Susan S%Chiu%NULL%0,           Joseph T%Wu%NULL%0,           Peng%Wu%pengwu@hku.hk%0,           Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,           Shuk-Ching%Wong%NULL%1,           Vivien Wai-Man%Chuang%NULL%1,           Simon Yung-Chun%So%NULL%1,           Jonathan Hon-Kwan%Chen%NULL%1,           Siddharth%Sridhar%NULL%1,           Kelvin Kai-Wang%To%NULL%0,           Jasper Fuk-Woo%Chan%NULL%0,           Ivan Fan-Ngai%Hung%NULL%0,           Pak-Leung%Ho%NULL%1,           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,           Pham Nguyen Hong%Ngoc%NULL%1,           Nguyen Minh%Hai%NULL%1,           Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,           Hak Jun%Hyun%NULL%1,           Jin Gu%Yun%NULL%1,           Ji Yun%Noh%NULL%1,           Hee Jin%Cheong%NULL%0,           Woo Joo%Kim%NULL%0,           Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,           Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,           Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,           Faris Jamal%AlMutairi%faris11300@gmail.com%1,           Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,           David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1161,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1118,7 +1190,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1147,7 +1219,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1176,7 +1248,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1205,7 +1277,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1234,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1263,7 +1335,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1292,7 +1364,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1321,7 +1393,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1350,7 +1422,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1379,7 +1451,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1408,7 +1480,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="234">
   <si>
     <t>Doi</t>
   </si>
@@ -780,6 +780,92 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,           Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,           Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,           Faris Jamal%AlMutairi%faris11300@gmail.com%1,           Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,           David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,            Nikki%Lam%NULL%2,            Nikki%Lam%NULL%0,            Benjamin%Woo%NULL%1,            Kylie%Zeng%kzeng2@student.touro.edu%2,            Kylie%Zeng%kzeng2@student.touro.edu%0,            Stephanie N%Bernardo%NULL%2,            Stephanie N%Bernardo%NULL%0,            Weldon E%Havins%NULL%2,            Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,            Guy%Fagherazzi%NULL%1,            Juan%Yang%NULL%0,            Juan%Yang%NULL%0,            Claire%Wang%NULL%1,            Céline%Mavrot%NULL%1,            Carlos K H%Wong%NULL%2,            Carlos K H%Wong%NULL%0,            Janet Y H%Wong%NULL%2,            Janet Y H%Wong%NULL%0,            Eric H M%Tang%NULL%2,            Eric H M%Tang%NULL%0,            Chi Ho%Au%NULL%2,            Chi Ho%Au%NULL%0,            Kristy T K%Lau%NULL%2,            Kristy T K%Lau%NULL%0,            Abraham K C%Wai%awai@hku.hk%2,            Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,            Guy%Harling%NULL%2,            Guy%Harling%NULL%0,            Zahra%Reynolds%NULL%2,            Zahra%Reynolds%NULL%0,            Rebecca F.%Gilbert%NULL%1,            Sebastien%Haneuse%NULL%2,            Sebastien%Haneuse%NULL%0,            Atheendar S.%Venkataramani%NULL%2,            Atheendar S.%Venkataramani%NULL%0,            Alexander C.%Tsai%NULL%2,            Alexander C.%Tsai%NULL%0,            Donald A.%Redelmeier%NULL%3,            Donald A.%Redelmeier%NULL%0,            Donald A.%Redelmeier%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,             A.% Dsida%null%1,             D.% Zastrow%null%1,             B.% Harper%null%1,             A.% Morris%null%1,             A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,             C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,     Li%Liu%xref no email%1,     Chaolong%Wang%xref no email%1,     Huan%Guo%xref no email%1,     Xingjie%Hao%xref no email%1,     Qi%Wang%xref no email%1,     Jiao%Huang%xref no email%1,     Na%He%xref no email%1,     Hongjie%Yu%xref no email%1,     Xihong%Lin%xref no email%1,     Sheng%Wei%xref no email%1,     Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,            Jie%Gao%NULL%1,            Hua%Wang%NULL%1,            Xiao-long%Wu%NULL%1,            Qin-fang%Yuan%NULL%1,            Fei-yu%Guo%NULL%1,            Zhi-jie%Zhang%NULL%1,            Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,            Sheikh Taslim%Ali%NULL%0,            Tiffany W Y%Ng%NULL%0,            Tim K%Tsang%NULL%0,            Julian C M%Li%NULL%0,            Min Whui%Fong%NULL%0,            Qiuyan%Liao%NULL%0,            Mike YW%Kwan%NULL%0,            So Lun%Lee%NULL%0,            Susan S%Chiu%NULL%0,            Joseph T%Wu%NULL%0,            Peng%Wu%pengwu@hku.hk%0,            Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,            Shuk-Ching%Wong%NULL%1,            Vivien Wai-Man%Chuang%NULL%1,            Simon Yung-Chun%So%NULL%1,            Jonathan Hon-Kwan%Chen%NULL%1,            Siddharth%Sridhar%NULL%1,            Kelvin Kai-Wang%To%NULL%0,            Jasper Fuk-Woo%Chan%NULL%0,            Ivan Fan-Ngai%Hung%NULL%0,            Pak-Leung%Ho%NULL%1,            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,            Pham Nguyen Hong%Ngoc%NULL%1,            Nguyen Minh%Hai%NULL%1,            Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,            Hak Jun%Hyun%NULL%1,            Jin Gu%Yun%NULL%1,            Ji Yun%Noh%NULL%1,            Hee Jin%Cheong%NULL%0,            Woo Joo%Kim%NULL%0,            Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+This study aimed to assess the impact of 15 days before, 15 days during, and 15 days after the lockdown on the trends in the prevalence and mortality in 27 countries during COVID-19 pandemic.
+Methods
+Twenty-seven countries were randomly selected from the different continents.
+ The information on the trends in the prevalence and mortality due to COVID-19 pandemic in 27 countries was obtained from World Health Organization and lockdown data were obtained from concerned countries and their ministries.
+ The impact of lockdown for 15 days before, 15 days during, and 15 days after the lockdown on the prevalence and mortality due to the COVID-19 pandemic in 27 countries was analyzed.
+Results
+The findings showed that 15 days after the lockdown there was a trend toward a decline, but no significant decline in the mean prevalence and mean mortality rate due to the COVID-19 pandemic compared to 15 days before, and 15 days during the lockdown in 27 countries.
+ The mean growth factor for number of cases was 1.18 and for mortality rate was 1.16.
+Conclusions
+The findings indicate that 15 days after the lockdown, daily cases of COVID-19 and the growth factor of the disease showed a declined trend, but there was no significant decline in the prevalence and mortality.
+</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,            Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,            Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,            Faris Jamal%AlMutairi%faris11300@gmail.com%1,            Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,            David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,             Nikki%Lam%NULL%2,             Nikki%Lam%NULL%0,             Benjamin%Woo%NULL%1,             Kylie%Zeng%kzeng2@student.touro.edu%2,             Kylie%Zeng%kzeng2@student.touro.edu%0,             Stephanie N%Bernardo%NULL%2,             Stephanie N%Bernardo%NULL%0,             Weldon E%Havins%NULL%2,             Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,             Guy%Fagherazzi%NULL%1,             Juan%Yang%NULL%0,             Juan%Yang%NULL%0,             Claire%Wang%NULL%1,             Céline%Mavrot%NULL%1,             Carlos K H%Wong%NULL%2,             Carlos K H%Wong%NULL%0,             Janet Y H%Wong%NULL%2,             Janet Y H%Wong%NULL%0,             Eric H M%Tang%NULL%2,             Eric H M%Tang%NULL%0,             Chi Ho%Au%NULL%2,             Chi Ho%Au%NULL%0,             Kristy T K%Lau%NULL%2,             Kristy T K%Lau%NULL%0,             Abraham K C%Wai%awai@hku.hk%2,             Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,             Guy%Harling%NULL%2,             Guy%Harling%NULL%0,             Zahra%Reynolds%NULL%2,             Zahra%Reynolds%NULL%0,             Rebecca F.%Gilbert%NULL%1,             Sebastien%Haneuse%NULL%2,             Sebastien%Haneuse%NULL%0,             Atheendar S.%Venkataramani%NULL%2,             Atheendar S.%Venkataramani%NULL%0,             Alexander C.%Tsai%NULL%2,             Alexander C.%Tsai%NULL%0,             Donald A.%Redelmeier%NULL%3,             Donald A.%Redelmeier%NULL%0,             Donald A.%Redelmeier%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,              A.% Dsida%null%1,              D.% Zastrow%null%1,              B.% Harper%null%1,              A.% Morris%null%1,              A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,              C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,      Li%Liu%xref no email%1,      Chaolong%Wang%xref no email%1,      Huan%Guo%xref no email%1,      Xingjie%Hao%xref no email%1,      Qi%Wang%xref no email%1,      Jiao%Huang%xref no email%1,      Na%He%xref no email%1,      Hongjie%Yu%xref no email%1,      Xihong%Lin%xref no email%1,      Sheng%Wei%xref no email%1,      Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,             Jie%Gao%NULL%1,             Hua%Wang%NULL%1,             Xiao-long%Wu%NULL%1,             Qin-fang%Yuan%NULL%1,             Fei-yu%Guo%NULL%1,             Zhi-jie%Zhang%NULL%1,             Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,             Sheikh Taslim%Ali%NULL%0,             Tiffany W Y%Ng%NULL%0,             Tim K%Tsang%NULL%0,             Julian C M%Li%NULL%0,             Min Whui%Fong%NULL%0,             Qiuyan%Liao%NULL%0,             Mike YW%Kwan%NULL%0,             So Lun%Lee%NULL%0,             Susan S%Chiu%NULL%0,             Joseph T%Wu%NULL%0,             Peng%Wu%pengwu@hku.hk%0,             Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,             Shuk-Ching%Wong%NULL%1,             Vivien Wai-Man%Chuang%NULL%1,             Simon Yung-Chun%So%NULL%1,             Jonathan Hon-Kwan%Chen%NULL%1,             Siddharth%Sridhar%NULL%1,             Kelvin Kai-Wang%To%NULL%0,             Jasper Fuk-Woo%Chan%NULL%0,             Ivan Fan-Ngai%Hung%NULL%0,             Pak-Leung%Ho%NULL%1,             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,             Pham Nguyen Hong%Ngoc%NULL%1,             Nguyen Minh%Hai%NULL%1,             Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,             Hak Jun%Hyun%NULL%1,             Jin Gu%Yun%NULL%1,             Ji Yun%Noh%NULL%1,             Hee Jin%Cheong%NULL%0,             Woo Joo%Kim%NULL%0,             Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,             Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,             Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,             Faris Jamal%AlMutairi%faris11300@gmail.com%1,             Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,             David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1247,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1190,7 +1276,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1219,7 +1305,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1248,7 +1334,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1277,7 +1363,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1306,7 +1392,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1335,7 +1421,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1364,7 +1450,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1393,7 +1479,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1422,7 +1508,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1451,7 +1537,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1477,10 +1563,10 @@
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="247">
   <si>
     <t>Doi</t>
   </si>
@@ -866,6 +866,45 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,             Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,             Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,             Faris Jamal%AlMutairi%faris11300@gmail.com%1,             Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,             David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,              Nikki%Lam%NULL%2,              Nikki%Lam%NULL%0,              Benjamin%Woo%NULL%1,              Kylie%Zeng%kzeng2@student.touro.edu%2,              Kylie%Zeng%kzeng2@student.touro.edu%0,              Stephanie N%Bernardo%NULL%2,              Stephanie N%Bernardo%NULL%0,              Weldon E%Havins%NULL%2,              Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,              Guy%Fagherazzi%NULL%1,              Juan%Yang%NULL%0,              Juan%Yang%NULL%0,              Claire%Wang%NULL%1,              Céline%Mavrot%NULL%1,              Carlos K H%Wong%NULL%2,              Carlos K H%Wong%NULL%0,              Janet Y H%Wong%NULL%2,              Janet Y H%Wong%NULL%0,              Eric H M%Tang%NULL%2,              Eric H M%Tang%NULL%0,              Chi Ho%Au%NULL%2,              Chi Ho%Au%NULL%0,              Kristy T K%Lau%NULL%2,              Kristy T K%Lau%NULL%0,              Abraham K C%Wai%awai@hku.hk%2,              Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,              Guy%Harling%NULL%2,              Guy%Harling%NULL%0,              Zahra%Reynolds%NULL%2,              Zahra%Reynolds%NULL%0,              Rebecca F.%Gilbert%NULL%1,              Sebastien%Haneuse%NULL%2,              Sebastien%Haneuse%NULL%0,              Atheendar S.%Venkataramani%NULL%2,              Atheendar S.%Venkataramani%NULL%0,              Alexander C.%Tsai%NULL%2,              Alexander C.%Tsai%NULL%0,              Donald A.%Redelmeier%NULL%3,              Donald A.%Redelmeier%NULL%0,              Donald A.%Redelmeier%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,               A.% Dsida%null%1,               D.% Zastrow%null%1,               B.% Harper%null%1,               A.% Morris%null%1,               A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,               C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,       Li%Liu%xref no email%1,       Chaolong%Wang%xref no email%1,       Huan%Guo%xref no email%1,       Xingjie%Hao%xref no email%1,       Qi%Wang%xref no email%1,       Jiao%Huang%xref no email%1,       Na%He%xref no email%1,       Hongjie%Yu%xref no email%1,       Xihong%Lin%xref no email%1,       Sheng%Wei%xref no email%1,       Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,              Jie%Gao%NULL%1,              Hua%Wang%NULL%1,              Xiao-long%Wu%NULL%1,              Qin-fang%Yuan%NULL%1,              Fei-yu%Guo%NULL%1,              Zhi-jie%Zhang%NULL%1,              Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,              Sheikh Taslim%Ali%NULL%0,              Tiffany W Y%Ng%NULL%0,              Tim K%Tsang%NULL%0,              Julian C M%Li%NULL%0,              Min Whui%Fong%NULL%0,              Qiuyan%Liao%NULL%0,              Mike YW%Kwan%NULL%0,              So Lun%Lee%NULL%0,              Susan S%Chiu%NULL%0,              Joseph T%Wu%NULL%0,              Peng%Wu%pengwu@hku.hk%0,              Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,              Shuk-Ching%Wong%NULL%1,              Vivien Wai-Man%Chuang%NULL%1,              Simon Yung-Chun%So%NULL%1,              Jonathan Hon-Kwan%Chen%NULL%1,              Siddharth%Sridhar%NULL%1,              Kelvin Kai-Wang%To%NULL%0,              Jasper Fuk-Woo%Chan%NULL%0,              Ivan Fan-Ngai%Hung%NULL%0,              Pak-Leung%Ho%NULL%1,              Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,              Pham Nguyen Hong%Ngoc%NULL%1,              Nguyen Minh%Hai%NULL%1,              Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,              Hak Jun%Hyun%NULL%1,              Jin Gu%Yun%NULL%1,              Ji Yun%Noh%NULL%1,              Hee Jin%Cheong%NULL%0,              Woo Joo%Kim%NULL%0,              Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,              Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,              Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,              Faris Jamal%AlMutairi%faris11300@gmail.com%1,              Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,              David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1286,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1276,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1305,7 +1344,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1334,13 +1373,13 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="H5" t="s">
         <v>51</v>
@@ -1363,13 +1402,13 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="H6" t="s">
         <v>55</v>
@@ -1392,7 +1431,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1421,7 +1460,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1450,7 +1489,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1479,7 +1518,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1508,7 +1547,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1537,7 +1576,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1566,7 +1605,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="259">
   <si>
     <t>Doi</t>
   </si>
@@ -905,6 +905,42 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,              Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,              Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,              Faris Jamal%AlMutairi%faris11300@gmail.com%1,              Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,              David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,               Nikki%Lam%NULL%2,               Nikki%Lam%NULL%0,               Benjamin%Woo%NULL%1,               Kylie%Zeng%kzeng2@student.touro.edu%2,               Kylie%Zeng%kzeng2@student.touro.edu%0,               Stephanie N%Bernardo%NULL%2,               Stephanie N%Bernardo%NULL%0,               Weldon E%Havins%NULL%2,               Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,               Guy%Fagherazzi%NULL%1,               Juan%Yang%NULL%0,               Juan%Yang%NULL%0,               Claire%Wang%NULL%1,               Céline%Mavrot%NULL%1,               Carlos K H%Wong%NULL%2,               Carlos K H%Wong%NULL%0,               Janet Y H%Wong%NULL%2,               Janet Y H%Wong%NULL%0,               Eric H M%Tang%NULL%2,               Eric H M%Tang%NULL%0,               Chi Ho%Au%NULL%2,               Chi Ho%Au%NULL%0,               Kristy T K%Lau%NULL%2,               Kristy T K%Lau%NULL%0,               Abraham K C%Wai%awai@hku.hk%2,               Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,               Guy%Harling%NULL%2,               Guy%Harling%NULL%0,               Zahra%Reynolds%NULL%2,               Zahra%Reynolds%NULL%0,               Rebecca F.%Gilbert%NULL%1,               Sebastien%Haneuse%NULL%2,               Sebastien%Haneuse%NULL%0,               Atheendar S.%Venkataramani%NULL%2,               Atheendar S.%Venkataramani%NULL%0,               Alexander C.%Tsai%NULL%2,               Alexander C.%Tsai%NULL%0,               Donald A.%Redelmeier%NULL%3,               Donald A.%Redelmeier%NULL%0,               Donald A.%Redelmeier%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                A.% Dsida%null%1,                D.% Zastrow%null%1,                B.% Harper%null%1,                A.% Morris%null%1,                A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,        Li%Liu%xref no email%1,        Chaolong%Wang%xref no email%1,        Huan%Guo%xref no email%1,        Xingjie%Hao%xref no email%1,        Qi%Wang%xref no email%1,        Jiao%Huang%xref no email%1,        Na%He%xref no email%1,        Hongjie%Yu%xref no email%1,        Xihong%Lin%xref no email%1,        Sheng%Wei%xref no email%1,        Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,               Jie%Gao%NULL%1,               Hua%Wang%NULL%1,               Xiao-long%Wu%NULL%1,               Qin-fang%Yuan%NULL%1,               Fei-yu%Guo%NULL%1,               Zhi-jie%Zhang%NULL%1,               Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,               Sheikh Taslim%Ali%NULL%0,               Tiffany W Y%Ng%NULL%0,               Tim K%Tsang%NULL%0,               Julian C M%Li%NULL%0,               Min Whui%Fong%NULL%0,               Qiuyan%Liao%NULL%0,               Mike YW%Kwan%NULL%0,               So Lun%Lee%NULL%0,               Susan S%Chiu%NULL%0,               Joseph T%Wu%NULL%0,               Peng%Wu%pengwu@hku.hk%0,               Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,               Shuk-Ching%Wong%NULL%1,               Vivien Wai-Man%Chuang%NULL%1,               Simon Yung-Chun%So%NULL%1,               Jonathan Hon-Kwan%Chen%NULL%1,               Siddharth%Sridhar%NULL%1,               Kelvin Kai-Wang%To%NULL%0,               Jasper Fuk-Woo%Chan%NULL%0,               Ivan Fan-Ngai%Hung%NULL%0,               Pak-Leung%Ho%NULL%1,               Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,               Pham Nguyen Hong%Ngoc%NULL%1,               Nguyen Minh%Hai%NULL%1,               Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,               Hak Jun%Hyun%NULL%1,               Jin Gu%Yun%NULL%1,               Ji Yun%Noh%NULL%1,               Hee Jin%Cheong%NULL%0,               Woo Joo%Kim%NULL%0,               Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,               Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,               Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,               Faris Jamal%AlMutairi%faris11300@gmail.com%1,               Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,               David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1322,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1315,7 +1351,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1344,7 +1380,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1373,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1402,7 +1438,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1431,7 +1467,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1460,7 +1496,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1489,7 +1525,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1518,7 +1554,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1547,7 +1583,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1576,7 +1612,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1605,7 +1641,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="283">
   <si>
     <t>Doi</t>
   </si>
@@ -941,6 +941,78 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,               Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,               Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,               Faris Jamal%AlMutairi%faris11300@gmail.com%1,               Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,               David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                Nikki%Lam%NULL%2,                Nikki%Lam%NULL%0,                Benjamin%Woo%NULL%1,                Kylie%Zeng%kzeng2@student.touro.edu%2,                Kylie%Zeng%kzeng2@student.touro.edu%0,                Stephanie N%Bernardo%NULL%2,                Stephanie N%Bernardo%NULL%0,                Weldon E%Havins%NULL%2,                Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                Guy%Fagherazzi%NULL%1,                Juan%Yang%NULL%0,                Juan%Yang%NULL%0,                Claire%Wang%NULL%1,                Céline%Mavrot%NULL%1,                Carlos K H%Wong%NULL%2,                Carlos K H%Wong%NULL%0,                Janet Y H%Wong%NULL%2,                Janet Y H%Wong%NULL%0,                Eric H M%Tang%NULL%2,                Eric H M%Tang%NULL%0,                Chi Ho%Au%NULL%2,                Chi Ho%Au%NULL%0,                Kristy T K%Lau%NULL%2,                Kristy T K%Lau%NULL%0,                Abraham K C%Wai%awai@hku.hk%2,                Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                Guy%Harling%NULL%2,                Guy%Harling%NULL%0,                Zahra%Reynolds%NULL%2,                Zahra%Reynolds%NULL%0,                Rebecca F.%Gilbert%NULL%1,                Sebastien%Haneuse%NULL%2,                Sebastien%Haneuse%NULL%0,                Atheendar S.%Venkataramani%NULL%2,                Atheendar S.%Venkataramani%NULL%0,                Alexander C.%Tsai%NULL%2,                Alexander C.%Tsai%NULL%0,                Donald A.%Redelmeier%NULL%3,                Donald A.%Redelmeier%NULL%0,                Donald A.%Redelmeier%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                 A.% Dsida%null%1,                 D.% Zastrow%null%1,                 B.% Harper%null%1,                 A.% Morris%null%1,                 A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                 C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,         Li%Liu%xref no email%1,         Chaolong%Wang%xref no email%1,         Huan%Guo%xref no email%1,         Xingjie%Hao%xref no email%1,         Qi%Wang%xref no email%1,         Jiao%Huang%xref no email%1,         Na%He%xref no email%1,         Hongjie%Yu%xref no email%1,         Xihong%Lin%xref no email%1,         Sheng%Wei%xref no email%1,         Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                Jie%Gao%NULL%1,                Hua%Wang%NULL%1,                Xiao-long%Wu%NULL%1,                Qin-fang%Yuan%NULL%1,                Fei-yu%Guo%NULL%1,                Zhi-jie%Zhang%NULL%1,                Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                Sheikh Taslim%Ali%NULL%0,                Tiffany W Y%Ng%NULL%0,                Tim K%Tsang%NULL%0,                Julian C M%Li%NULL%0,                Min Whui%Fong%NULL%0,                Qiuyan%Liao%NULL%0,                Mike YW%Kwan%NULL%0,                So Lun%Lee%NULL%0,                Susan S%Chiu%NULL%0,                Joseph T%Wu%NULL%0,                Peng%Wu%pengwu@hku.hk%0,                Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                Shuk-Ching%Wong%NULL%1,                Vivien Wai-Man%Chuang%NULL%1,                Simon Yung-Chun%So%NULL%1,                Jonathan Hon-Kwan%Chen%NULL%1,                Siddharth%Sridhar%NULL%1,                Kelvin Kai-Wang%To%NULL%0,                Jasper Fuk-Woo%Chan%NULL%0,                Ivan Fan-Ngai%Hung%NULL%0,                Pak-Leung%Ho%NULL%1,                Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                Pham Nguyen Hong%Ngoc%NULL%1,                Nguyen Minh%Hai%NULL%1,                Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                Hak Jun%Hyun%NULL%1,                Jin Gu%Yun%NULL%1,                Ji Yun%Noh%NULL%1,                Hee Jin%Cheong%NULL%0,                Woo Joo%Kim%NULL%0,                Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                Faris Jamal%AlMutairi%faris11300@gmail.com%1,                Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                 Nikki%Lam%NULL%2,                 Nikki%Lam%NULL%0,                 Benjamin%Woo%NULL%1,                 Kylie%Zeng%kzeng2@student.touro.edu%2,                 Kylie%Zeng%kzeng2@student.touro.edu%0,                 Stephanie N%Bernardo%NULL%2,                 Stephanie N%Bernardo%NULL%0,                 Weldon E%Havins%NULL%2,                 Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                 Guy%Fagherazzi%NULL%1,                 Juan%Yang%NULL%0,                 Juan%Yang%NULL%0,                 Claire%Wang%NULL%1,                 Céline%Mavrot%NULL%1,                 Carlos K H%Wong%NULL%2,                 Carlos K H%Wong%NULL%0,                 Janet Y H%Wong%NULL%2,                 Janet Y H%Wong%NULL%0,                 Eric H M%Tang%NULL%2,                 Eric H M%Tang%NULL%0,                 Chi Ho%Au%NULL%2,                 Chi Ho%Au%NULL%0,                 Kristy T K%Lau%NULL%2,                 Kristy T K%Lau%NULL%0,                 Abraham K C%Wai%awai@hku.hk%2,                 Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                 Guy%Harling%NULL%2,                 Guy%Harling%NULL%0,                 Zahra%Reynolds%NULL%2,                 Zahra%Reynolds%NULL%0,                 Rebecca F.%Gilbert%NULL%1,                 Sebastien%Haneuse%NULL%2,                 Sebastien%Haneuse%NULL%0,                 Atheendar S.%Venkataramani%NULL%2,                 Atheendar S.%Venkataramani%NULL%0,                 Alexander C.%Tsai%NULL%2,                 Alexander C.%Tsai%NULL%0,                 Donald A.%Redelmeier%NULL%3,                 Donald A.%Redelmeier%NULL%0,                 Donald A.%Redelmeier%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                  A.% Dsida%null%1,                  D.% Zastrow%null%1,                  B.% Harper%null%1,                  A.% Morris%null%1,                  A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                  C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,          Li%Liu%xref no email%1,          Chaolong%Wang%xref no email%1,          Huan%Guo%xref no email%1,          Xingjie%Hao%xref no email%1,          Qi%Wang%xref no email%1,          Jiao%Huang%xref no email%1,          Na%He%xref no email%1,          Hongjie%Yu%xref no email%1,          Xihong%Lin%xref no email%1,          Sheng%Wei%xref no email%1,          Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                 Jie%Gao%NULL%1,                 Hua%Wang%NULL%1,                 Xiao-long%Wu%NULL%1,                 Qin-fang%Yuan%NULL%1,                 Fei-yu%Guo%NULL%1,                 Zhi-jie%Zhang%NULL%1,                 Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                 Sheikh Taslim%Ali%NULL%0,                 Tiffany W Y%Ng%NULL%0,                 Tim K%Tsang%NULL%0,                 Julian C M%Li%NULL%0,                 Min Whui%Fong%NULL%0,                 Qiuyan%Liao%NULL%0,                 Mike YW%Kwan%NULL%0,                 So Lun%Lee%NULL%0,                 Susan S%Chiu%NULL%0,                 Joseph T%Wu%NULL%0,                 Peng%Wu%pengwu@hku.hk%0,                 Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                 Shuk-Ching%Wong%NULL%1,                 Vivien Wai-Man%Chuang%NULL%1,                 Simon Yung-Chun%So%NULL%1,                 Jonathan Hon-Kwan%Chen%NULL%1,                 Siddharth%Sridhar%NULL%1,                 Kelvin Kai-Wang%To%NULL%0,                 Jasper Fuk-Woo%Chan%NULL%0,                 Ivan Fan-Ngai%Hung%NULL%0,                 Pak-Leung%Ho%NULL%1,                 Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                 Pham Nguyen Hong%Ngoc%NULL%1,                 Nguyen Minh%Hai%NULL%1,                 Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                 Hak Jun%Hyun%NULL%1,                 Jin Gu%Yun%NULL%1,                 Ji Yun%Noh%NULL%1,                 Hee Jin%Cheong%NULL%0,                 Woo Joo%Kim%NULL%0,                 Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                 Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                 Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                 Faris Jamal%AlMutairi%faris11300@gmail.com%1,                 Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                 David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1394,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1351,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1380,7 +1452,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1409,7 +1481,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1438,7 +1510,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1467,7 +1539,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1496,7 +1568,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1525,7 +1597,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1554,7 +1626,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1583,7 +1655,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1612,7 +1684,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1641,7 +1713,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="295">
   <si>
     <t>Doi</t>
   </si>
@@ -1013,6 +1013,42 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                 Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                 Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                 Faris Jamal%AlMutairi%faris11300@gmail.com%1,                 Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                 David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                  Nikki%Lam%NULL%2,                  Nikki%Lam%NULL%0,                  Benjamin%Woo%NULL%1,                  Kylie%Zeng%kzeng2@student.touro.edu%2,                  Kylie%Zeng%kzeng2@student.touro.edu%0,                  Stephanie N%Bernardo%NULL%2,                  Stephanie N%Bernardo%NULL%0,                  Weldon E%Havins%NULL%2,                  Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                  Guy%Fagherazzi%NULL%1,                  Juan%Yang%NULL%0,                  Juan%Yang%NULL%0,                  Claire%Wang%NULL%1,                  Céline%Mavrot%NULL%1,                  Carlos K H%Wong%NULL%2,                  Carlos K H%Wong%NULL%0,                  Janet Y H%Wong%NULL%2,                  Janet Y H%Wong%NULL%0,                  Eric H M%Tang%NULL%2,                  Eric H M%Tang%NULL%0,                  Chi Ho%Au%NULL%2,                  Chi Ho%Au%NULL%0,                  Kristy T K%Lau%NULL%2,                  Kristy T K%Lau%NULL%0,                  Abraham K C%Wai%awai@hku.hk%2,                  Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                  Guy%Harling%NULL%2,                  Guy%Harling%NULL%0,                  Zahra%Reynolds%NULL%2,                  Zahra%Reynolds%NULL%0,                  Rebecca F.%Gilbert%NULL%1,                  Sebastien%Haneuse%NULL%2,                  Sebastien%Haneuse%NULL%0,                  Atheendar S.%Venkataramani%NULL%2,                  Atheendar S.%Venkataramani%NULL%0,                  Alexander C.%Tsai%NULL%2,                  Alexander C.%Tsai%NULL%0,                  Donald A.%Redelmeier%NULL%3,                  Donald A.%Redelmeier%NULL%0,                  Donald A.%Redelmeier%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                   A.% Dsida%null%1,                   D.% Zastrow%null%1,                   B.% Harper%null%1,                   A.% Morris%null%1,                   A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                   C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,           Li%Liu%xref no email%1,           Chaolong%Wang%xref no email%1,           Huan%Guo%xref no email%1,           Xingjie%Hao%xref no email%1,           Qi%Wang%xref no email%0,           Jiao%Huang%xref no email%1,           Na%He%xref no email%1,           Hongjie%Yu%xref no email%1,           Xihong%Lin%xref no email%1,           Sheng%Wei%xref no email%1,           Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                  Jie%Gao%NULL%1,                  Hua%Wang%NULL%1,                  Xiao-long%Wu%NULL%1,                  Qin-fang%Yuan%NULL%1,                  Fei-yu%Guo%NULL%1,                  Zhi-jie%Zhang%NULL%1,                  Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                  Sheikh Taslim%Ali%NULL%0,                  Tiffany W Y%Ng%NULL%0,                  Tim K%Tsang%NULL%0,                  Julian C M%Li%NULL%0,                  Min Whui%Fong%NULL%0,                  Qiuyan%Liao%NULL%0,                  Mike YW%Kwan%NULL%0,                  So Lun%Lee%NULL%0,                  Susan S%Chiu%NULL%0,                  Joseph T%Wu%NULL%0,                  Peng%Wu%pengwu@hku.hk%0,                  Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%2,                  Shuk-Ching%Wong%NULL%1,                  Vivien Wai-Man%Chuang%NULL%1,                  Simon Yung-Chun%So%NULL%1,                  Jonathan Hon-Kwan%Chen%NULL%1,                  Siddharth%Sridhar%NULL%1,                  Kelvin Kai-Wang%To%NULL%0,                  Jasper Fuk-Woo%Chan%NULL%0,                  Ivan Fan-Ngai%Hung%NULL%0,                  Pak-Leung%Ho%NULL%1,                  Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                  Pham Nguyen Hong%Ngoc%NULL%1,                  Nguyen Minh%Hai%NULL%1,                  Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                  Hak Jun%Hyun%NULL%1,                  Jin Gu%Yun%NULL%1,                  Ji Yun%Noh%NULL%1,                  Hee Jin%Cheong%NULL%0,                  Woo Joo%Kim%NULL%0,                  Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                  Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                  Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                  Faris Jamal%AlMutairi%faris11300@gmail.com%1,                  Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                  David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1430,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1423,7 +1459,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1452,7 +1488,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1481,7 +1517,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1510,7 +1546,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1539,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1568,7 +1604,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1597,7 +1633,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1626,7 +1662,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1655,7 +1691,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1684,7 +1720,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1713,7 +1749,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="312">
   <si>
     <t>Doi</t>
   </si>
@@ -1049,6 +1049,57 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                  Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                  Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                  Faris Jamal%AlMutairi%faris11300@gmail.com%1,                  Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                  David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                   Nikki%Lam%NULL%2,                   Nikki%Lam%NULL%0,                   Benjamin%Woo%NULL%1,                   Kylie%Zeng%kzeng2@student.touro.edu%2,                   Kylie%Zeng%kzeng2@student.touro.edu%0,                   Stephanie N%Bernardo%NULL%2,                   Stephanie N%Bernardo%NULL%0,                   Weldon E%Havins%NULL%2,                   Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                   Guy%Fagherazzi%NULL%1,                   Juan%Yang%NULL%0,                   Juan%Yang%NULL%0,                   Claire%Wang%NULL%1,                   Céline%Mavrot%NULL%1,                   Carlos K H%Wong%NULL%2,                   Carlos K H%Wong%NULL%0,                   Janet Y H%Wong%NULL%2,                   Janet Y H%Wong%NULL%0,                   Eric H M%Tang%NULL%2,                   Eric H M%Tang%NULL%0,                   Chi Ho%Au%NULL%2,                   Chi Ho%Au%NULL%0,                   Kristy T K%Lau%NULL%2,                   Kristy T K%Lau%NULL%0,                   Abraham K C%Wai%awai@hku.hk%2,                   Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                   Guy%Harling%NULL%2,                   Guy%Harling%NULL%0,                   Zahra%Reynolds%NULL%2,                   Zahra%Reynolds%NULL%0,                   Rebecca F.%Gilbert%NULL%1,                   Sebastien%Haneuse%NULL%2,                   Sebastien%Haneuse%NULL%0,                   Atheendar S.%Venkataramani%NULL%2,                   Atheendar S.%Venkataramani%NULL%0,                   Alexander C.%Tsai%NULL%2,                   Alexander C.%Tsai%NULL%0,                   Donald A.%Redelmeier%NULL%3,                   Donald A.%Redelmeier%NULL%0,                   Donald A.%Redelmeier%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                    A.% Dsida%null%1,                    D.% Zastrow%null%1,                    B.% Harper%null%1,                    A.% Morris%null%1,                    A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                    C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,            Li%Liu%xref no email%1,            Chaolong%Wang%xref no email%1,            Huan%Guo%xref no email%1,            Xingjie%Hao%xref no email%1,            Qi%Wang%xref no email%1,            Jiao%Huang%xref no email%1,            Na%He%xref no email%1,            Hongjie%Yu%xref no email%1,            Xihong%Lin%xref no email%1,            Sheng%Wei%xref no email%1,            Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                   Jie%Gao%NULL%1,                   Hua%Wang%NULL%1,                   Xiao-long%Wu%NULL%1,                   Qin-fang%Yuan%NULL%1,                   Fei-yu%Guo%NULL%1,                   Zhi-jie%Zhang%NULL%1,                   Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                   Sheikh Taslim%Ali%NULL%0,                   Tiffany W Y%Ng%NULL%0,                   Tim K%Tsang%NULL%0,                   Julian C M%Li%NULL%0,                   Min Whui%Fong%NULL%0,                   Qiuyan%Liao%NULL%0,                   Mike YW%Kwan%NULL%0,                   So Lun%Lee%NULL%0,                   Susan S%Chiu%NULL%0,                   Joseph T%Wu%NULL%0,                   Peng%Wu%pengwu@hku.hk%0,                   Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                   Shuk-Ching%Wong%NULL%1,                   Vivien Wai-Man%Chuang%NULL%1,                   Simon Yung-Chun%So%NULL%1,                   Jonathan Hon-Kwan%Chen%NULL%1,                   Siddharth%Sridhar%NULL%1,                   Kelvin Kai-Wang%To%NULL%0,                   Jasper Fuk-Woo%Chan%NULL%0,                   Ivan Fan-Ngai%Hung%NULL%0,                   Pak-Leung%Ho%NULL%1,                   Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                   Pham Nguyen Hong%Ngoc%NULL%1,                   Nguyen Minh%Hai%NULL%1,                   Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                   Hak Jun%Hyun%NULL%1,                   Jin Gu%Yun%NULL%1,                   Ji Yun%Noh%NULL%1,                   Hee Jin%Cheong%NULL%0,                   Woo Joo%Kim%NULL%0,                   Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                   Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                   Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                   Faris Jamal%AlMutairi%faris11300@gmail.com%1,                   Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                   David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1481,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1442,7 +1493,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
@@ -1459,7 +1510,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1471,7 +1522,7 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
@@ -1488,7 +1539,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1500,7 +1551,7 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
@@ -1517,7 +1568,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1529,7 +1580,7 @@
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -1546,7 +1597,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1558,7 +1609,7 @@
         <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -1575,7 +1626,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1587,7 +1638,7 @@
         <v>166</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8">
@@ -1604,7 +1655,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1616,7 +1667,7 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9">
@@ -1633,7 +1684,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1645,7 +1696,7 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1713,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1674,7 +1725,7 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11">
@@ -1691,7 +1742,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1703,7 +1754,7 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +1771,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1732,7 +1783,7 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13">
@@ -1749,7 +1800,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1761,7 +1812,7 @@
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14">

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="324">
   <si>
     <t>Doi</t>
   </si>
@@ -1100,6 +1100,42 @@
   </si>
   <si>
     <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                    Nikki%Lam%NULL%2,                    Nikki%Lam%NULL%0,                    Benjamin%Woo%NULL%1,                    Kylie%Zeng%kzeng2@student.touro.edu%2,                    Kylie%Zeng%kzeng2@student.touro.edu%0,                    Stephanie N%Bernardo%NULL%2,                    Stephanie N%Bernardo%NULL%0,                    Weldon E%Havins%NULL%2,                    Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                    Guy%Fagherazzi%NULL%1,                    Juan%Yang%NULL%0,                    Juan%Yang%NULL%0,                    Claire%Wang%NULL%1,                    Céline%Mavrot%NULL%1,                    Carlos K H%Wong%NULL%2,                    Carlos K H%Wong%NULL%0,                    Janet Y H%Wong%NULL%2,                    Janet Y H%Wong%NULL%0,                    Eric H M%Tang%NULL%2,                    Eric H M%Tang%NULL%0,                    Chi Ho%Au%NULL%2,                    Chi Ho%Au%NULL%0,                    Kristy T K%Lau%NULL%2,                    Kristy T K%Lau%NULL%0,                    Abraham K C%Wai%awai@hku.hk%2,                    Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                    Guy%Harling%NULL%2,                    Guy%Harling%NULL%0,                    Zahra%Reynolds%NULL%2,                    Zahra%Reynolds%NULL%0,                    Rebecca F.%Gilbert%NULL%1,                    Sebastien%Haneuse%NULL%2,                    Sebastien%Haneuse%NULL%0,                    Atheendar S.%Venkataramani%NULL%2,                    Atheendar S.%Venkataramani%NULL%0,                    Alexander C.%Tsai%NULL%2,                    Alexander C.%Tsai%NULL%0,                    Donald A.%Redelmeier%NULL%3,                    Donald A.%Redelmeier%NULL%0,                    Donald A.%Redelmeier%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%2,                     A.% Dsida%null%1,                     D.% Zastrow%null%1,                     B.% Harper%null%1,                     A.% Morris%null%1,                     A. % Santella%null%1,  B.%Krishnamachari%null%0,  A.% Dsida%null%1,  D.% Zastrow%null%1,  B.% Harper%null%1,  A.% Morris%null%1,  A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%2,                     C. % Bjornskov%null%1,  K. P.%Kepp%null%0,  C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%1,             Li%Liu%xref no email%1,             Chaolong%Wang%xref no email%1,             Huan%Guo%xref no email%1,             Xingjie%Hao%xref no email%1,             Qi%Wang%xref no email%1,             Jiao%Huang%xref no email%1,             Na%He%xref no email%1,             Hongjie%Yu%xref no email%1,             Xihong%Lin%xref no email%1,             Sheng%Wei%xref no email%1,             Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                    Jie%Gao%NULL%1,                    Hua%Wang%NULL%1,                    Xiao-long%Wu%NULL%1,                    Qin-fang%Yuan%NULL%1,                    Fei-yu%Guo%NULL%1,                    Zhi-jie%Zhang%NULL%1,                    Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                    Sheikh Taslim%Ali%NULL%0,                    Tiffany W Y%Ng%NULL%0,                    Tim K%Tsang%NULL%0,                    Julian C M%Li%NULL%0,                    Min Whui%Fong%NULL%0,                    Qiuyan%Liao%NULL%0,                    Mike YW%Kwan%NULL%0,                    So Lun%Lee%NULL%0,                    Susan S%Chiu%NULL%0,                    Joseph T%Wu%NULL%0,                    Peng%Wu%pengwu@hku.hk%0,                    Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                    Shuk-Ching%Wong%NULL%1,                    Vivien Wai-Man%Chuang%NULL%1,                    Simon Yung-Chun%So%NULL%1,                    Jonathan Hon-Kwan%Chen%NULL%1,                    Siddharth%Sridhar%NULL%1,                    Kelvin Kai-Wang%To%NULL%0,                    Jasper Fuk-Woo%Chan%NULL%0,                    Ivan Fan-Ngai%Hung%NULL%0,                    Pak-Leung%Ho%NULL%1,                    Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                    Pham Nguyen Hong%Ngoc%NULL%1,                    Nguyen Minh%Hai%NULL%1,                    Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                    Hak Jun%Hyun%NULL%1,                    Jin Gu%Yun%NULL%1,                    Ji Yun%Noh%NULL%1,                    Hee Jin%Cheong%NULL%0,                    Woo Joo%Kim%NULL%0,                    Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                    Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                    Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                    Faris Jamal%AlMutairi%faris11300@gmail.com%1,                    Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                    David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1517,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1510,7 +1546,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1539,7 +1575,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1568,7 +1604,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1597,7 +1633,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1626,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1655,7 +1691,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1684,7 +1720,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1713,7 +1749,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1742,7 +1778,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1771,7 +1807,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1800,7 +1836,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="383">
   <si>
     <t>Doi</t>
   </si>
@@ -1136,6 +1136,183 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                    Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                    Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                    Faris Jamal%AlMutairi%faris11300@gmail.com%1,                    Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                    David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                     Nikki%Lam%NULL%2,                     Nikki%Lam%NULL%0,                     Benjamin%Woo%NULL%1,                     Kylie%Zeng%kzeng2@student.touro.edu%2,                     Kylie%Zeng%kzeng2@student.touro.edu%0,                     Stephanie N%Bernardo%NULL%2,                     Stephanie N%Bernardo%NULL%0,                     Weldon E%Havins%NULL%2,                     Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                     Guy%Fagherazzi%NULL%1,                     Juan%Yang%NULL%0,                     Juan%Yang%NULL%0,                     Claire%Wang%NULL%1,                     Céline%Mavrot%NULL%1,                     Carlos K H%Wong%NULL%2,                     Carlos K H%Wong%NULL%0,                     Janet Y H%Wong%NULL%2,                     Janet Y H%Wong%NULL%0,                     Eric H M%Tang%NULL%2,                     Eric H M%Tang%NULL%0,                     Chi Ho%Au%NULL%2,                     Chi Ho%Au%NULL%0,                     Kristy T K%Lau%NULL%2,                     Kristy T K%Lau%NULL%0,                     Abraham K C%Wai%awai@hku.hk%2,                     Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                     Guy%Harling%NULL%2,                     Guy%Harling%NULL%0,                     Zahra%Reynolds%NULL%2,                     Zahra%Reynolds%NULL%0,                     Rebecca F.%Gilbert%NULL%1,                     Sebastien%Haneuse%NULL%2,                     Sebastien%Haneuse%NULL%0,                     Atheendar S.%Venkataramani%NULL%2,                     Atheendar S.%Venkataramani%NULL%0,                     Alexander C.%Tsai%NULL%2,                     Alexander C.%Tsai%NULL%0,                     Donald A.%Redelmeier%NULL%3,                     Donald A.%Redelmeier%NULL%0,                     Donald A.%Redelmeier%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                      A.% Dsida%null%1,                      D.% Zastrow%null%1,                      B.% Harper%null%1,                      A.% Morris%null%1,                      A. % Santella%null%1,   B.%Krishnamachari%null%1,   A.% Dsida%null%1,   D.% Zastrow%null%1,   B.% Harper%null%1,   A.% Morris%null%1,   A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                      C. % Bjornskov%null%1,   K. P.%Kepp%null%1,   C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[An%Pan%xref no email%0, Li%Liu%xref no email%1, Chaolong%Wang%xref no email%1, Huan%Guo%xref no email%1, Xingjie%Hao%xref no email%1, Qi%Wang%xref no email%1, Jiao%Huang%xref no email%1, Na%He%xref no email%1, Hongjie%Yu%xref no email%0, Xihong%Lin%xref no email%1, Sheng%Wei%xref no email%1, Tangchun%Wu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                     Jie%Gao%NULL%1,                     Hua%Wang%NULL%1,                     Xiao-long%Wu%NULL%1,                     Qin-fang%Yuan%NULL%1,                     Fei-yu%Guo%NULL%1,                     Zhi-jie%Zhang%NULL%1,                     Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                     Sheikh Taslim%Ali%NULL%0,                     Tiffany W Y%Ng%NULL%0,                     Tim K%Tsang%NULL%0,                     Julian C M%Li%NULL%0,                     Min Whui%Fong%NULL%0,                     Qiuyan%Liao%NULL%0,                     Mike YW%Kwan%NULL%0,                     So Lun%Lee%NULL%0,                     Susan S%Chiu%NULL%0,                     Joseph T%Wu%NULL%0,                     Peng%Wu%pengwu@hku.hk%0,                     Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                     Shuk-Ching%Wong%NULL%1,                     Vivien Wai-Man%Chuang%NULL%1,                     Simon Yung-Chun%So%NULL%1,                     Jonathan Hon-Kwan%Chen%NULL%1,                     Siddharth%Sridhar%NULL%1,                     Kelvin Kai-Wang%To%NULL%0,                     Jasper Fuk-Woo%Chan%NULL%0,                     Ivan Fan-Ngai%Hung%NULL%0,                     Pak-Leung%Ho%NULL%1,                     Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                     Pham Nguyen Hong%Ngoc%NULL%1,                     Nguyen Minh%Hai%NULL%1,                     Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                     Hak Jun%Hyun%NULL%1,                     Jin Gu%Yun%NULL%1,                     Ji Yun%Noh%NULL%1,                     Hee Jin%Cheong%NULL%0,                     Woo Joo%Kim%NULL%0,                     Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                     Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                     Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                     Faris Jamal%AlMutairi%faris11300@gmail.com%1,                     Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                     David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                      Nikki%Lam%NULL%2,                      Nikki%Lam%NULL%0,                      Benjamin%Woo%NULL%1,                      Kylie%Zeng%kzeng2@student.touro.edu%2,                      Kylie%Zeng%kzeng2@student.touro.edu%0,                      Stephanie N%Bernardo%NULL%2,                      Stephanie N%Bernardo%NULL%0,                      Weldon E%Havins%NULL%2,                      Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                      Guy%Fagherazzi%NULL%1,                      Juan%Yang%NULL%0,                      Juan%Yang%NULL%0,                      Claire%Wang%NULL%1,                      Céline%Mavrot%NULL%1,                      Carlos K H%Wong%NULL%2,                      Carlos K H%Wong%NULL%0,                      Janet Y H%Wong%NULL%2,                      Janet Y H%Wong%NULL%0,                      Eric H M%Tang%NULL%2,                      Eric H M%Tang%NULL%0,                      Chi Ho%Au%NULL%2,                      Chi Ho%Au%NULL%0,                      Kristy T K%Lau%NULL%2,                      Kristy T K%Lau%NULL%0,                      Abraham K C%Wai%awai@hku.hk%2,                      Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                      Guy%Harling%NULL%2,                      Guy%Harling%NULL%0,                      Zahra%Reynolds%NULL%2,                      Zahra%Reynolds%NULL%0,                      Rebecca F.%Gilbert%NULL%1,                      Sebastien%Haneuse%NULL%2,                      Sebastien%Haneuse%NULL%0,                      Atheendar S.%Venkataramani%NULL%2,                      Atheendar S.%Venkataramani%NULL%0,                      Alexander C.%Tsai%NULL%2,                      Alexander C.%Tsai%NULL%0,                      Donald A.%Redelmeier%NULL%3,                      Donald A.%Redelmeier%NULL%0,                      Donald A.%Redelmeier%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                       A.% Dsida%null%1,                       D.% Zastrow%null%1,                       B.% Harper%null%1,                       A.% Morris%null%1,                       A. % Santella%null%1,    B.%Krishnamachari%null%1,    A.% Dsida%null%1,    D.% Zastrow%null%1,    B.% Harper%null%1,    A.% Morris%null%1,    A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                       C. % Bjornskov%null%1,    K. P.%Kepp%null%1,    C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                      Jie%Gao%NULL%1,                      Hua%Wang%NULL%1,                      Xiao-long%Wu%NULL%1,                      Qin-fang%Yuan%NULL%1,                      Fei-yu%Guo%NULL%1,                      Zhi-jie%Zhang%NULL%1,                      Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                      Sheikh Taslim%Ali%NULL%0,                      Tiffany W Y%Ng%NULL%0,                      Tim K%Tsang%NULL%0,                      Julian C M%Li%NULL%0,                      Min Whui%Fong%NULL%0,                      Qiuyan%Liao%NULL%0,                      Mike YW%Kwan%NULL%0,                      So Lun%Lee%NULL%0,                      Susan S%Chiu%NULL%0,                      Joseph T%Wu%NULL%0,                      Peng%Wu%pengwu@hku.hk%0,                      Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                      Shuk-Ching%Wong%NULL%1,                      Vivien Wai-Man%Chuang%NULL%1,                      Simon Yung-Chun%So%NULL%1,                      Jonathan Hon-Kwan%Chen%NULL%1,                      Siddharth%Sridhar%NULL%1,                      Kelvin Kai-Wang%To%NULL%0,                      Jasper Fuk-Woo%Chan%NULL%0,                      Ivan Fan-Ngai%Hung%NULL%0,                      Pak-Leung%Ho%NULL%1,                      Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                      Pham Nguyen Hong%Ngoc%NULL%1,                      Nguyen Minh%Hai%NULL%1,                      Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                      Hak Jun%Hyun%NULL%1,                      Jin Gu%Yun%NULL%1,                      Ji Yun%Noh%NULL%1,                      Hee Jin%Cheong%NULL%0,                      Woo Joo%Kim%NULL%0,                      Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                      Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                      Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                      Faris Jamal%AlMutairi%faris11300@gmail.com%1,                      Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                      David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                       Nikki%Lam%NULL%2,                       Nikki%Lam%NULL%0,                       Benjamin%Woo%NULL%1,                       Kylie%Zeng%kzeng2@student.touro.edu%2,                       Kylie%Zeng%kzeng2@student.touro.edu%0,                       Stephanie N%Bernardo%NULL%2,                       Stephanie N%Bernardo%NULL%0,                       Weldon E%Havins%NULL%2,                       Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                       Guy%Fagherazzi%NULL%1,                       Juan%Yang%NULL%0,                       Juan%Yang%NULL%0,                       Claire%Wang%NULL%1,                       Céline%Mavrot%NULL%1,                       Carlos K H%Wong%NULL%2,                       Carlos K H%Wong%NULL%0,                       Janet Y H%Wong%NULL%2,                       Janet Y H%Wong%NULL%0,                       Eric H M%Tang%NULL%2,                       Eric H M%Tang%NULL%0,                       Chi Ho%Au%NULL%2,                       Chi Ho%Au%NULL%0,                       Kristy T K%Lau%NULL%2,                       Kristy T K%Lau%NULL%0,                       Abraham K C%Wai%awai@hku.hk%2,                       Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                       Guy%Harling%NULL%2,                       Guy%Harling%NULL%0,                       Zahra%Reynolds%NULL%2,                       Zahra%Reynolds%NULL%0,                       Rebecca F.%Gilbert%NULL%1,                       Sebastien%Haneuse%NULL%2,                       Sebastien%Haneuse%NULL%0,                       Atheendar S.%Venkataramani%NULL%2,                       Atheendar S.%Venkataramani%NULL%0,                       Alexander C.%Tsai%NULL%2,                       Alexander C.%Tsai%NULL%0,                       Donald A.%Redelmeier%NULL%3,                       Donald A.%Redelmeier%NULL%0,                       Donald A.%Redelmeier%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                        A.% Dsida%null%1,                        D.% Zastrow%null%1,                        B.% Harper%null%1,                        A.% Morris%null%1,                        A. % Santella%null%1,     B.%Krishnamachari%null%1,     A.% Dsida%null%1,     D.% Zastrow%null%1,     B.% Harper%null%1,     A.% Morris%null%1,     A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                        C. % Bjornskov%null%1,     K. P.%Kepp%null%1,     C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                       Jie%Gao%NULL%1,                       Hua%Wang%NULL%1,                       Xiao-long%Wu%NULL%1,                       Qin-fang%Yuan%NULL%1,                       Fei-yu%Guo%NULL%1,                       Zhi-jie%Zhang%NULL%1,                       Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                       Sheikh Taslim%Ali%NULL%0,                       Tiffany W Y%Ng%NULL%0,                       Tim K%Tsang%NULL%0,                       Julian C M%Li%NULL%0,                       Min Whui%Fong%NULL%0,                       Qiuyan%Liao%NULL%0,                       Mike YW%Kwan%NULL%0,                       So Lun%Lee%NULL%0,                       Susan S%Chiu%NULL%0,                       Joseph T%Wu%NULL%0,                       Peng%Wu%pengwu@hku.hk%0,                       Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                       Shuk-Ching%Wong%NULL%1,                       Vivien Wai-Man%Chuang%NULL%1,                       Simon Yung-Chun%So%NULL%1,                       Jonathan Hon-Kwan%Chen%NULL%1,                       Siddharth%Sridhar%NULL%1,                       Kelvin Kai-Wang%To%NULL%0,                       Jasper Fuk-Woo%Chan%NULL%0,                       Ivan Fan-Ngai%Hung%NULL%0,                       Pak-Leung%Ho%NULL%1,                       Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                       Pham Nguyen Hong%Ngoc%NULL%1,                       Nguyen Minh%Hai%NULL%1,                       Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                       Hak Jun%Hyun%NULL%1,                       Jin Gu%Yun%NULL%1,                       Ji Yun%Noh%NULL%1,                       Hee Jin%Cheong%NULL%0,                       Woo Joo%Kim%NULL%0,                       Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                       Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                       Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                       Faris Jamal%AlMutairi%faris11300@gmail.com%1,                       Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                       David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                        Nikki%Lam%NULL%2,                        Nikki%Lam%NULL%0,                        Benjamin%Woo%NULL%1,                        Kylie%Zeng%kzeng2@student.touro.edu%2,                        Kylie%Zeng%kzeng2@student.touro.edu%0,                        Stephanie N%Bernardo%NULL%2,                        Stephanie N%Bernardo%NULL%0,                        Weldon E%Havins%NULL%2,                        Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                        Guy%Fagherazzi%NULL%1,                        Juan%Yang%NULL%0,                        Juan%Yang%NULL%0,                        Claire%Wang%NULL%1,                        Céline%Mavrot%NULL%1,                        Carlos K H%Wong%NULL%2,                        Carlos K H%Wong%NULL%0,                        Janet Y H%Wong%NULL%2,                        Janet Y H%Wong%NULL%0,                        Eric H M%Tang%NULL%2,                        Eric H M%Tang%NULL%0,                        Chi Ho%Au%NULL%2,                        Chi Ho%Au%NULL%0,                        Kristy T K%Lau%NULL%2,                        Kristy T K%Lau%NULL%0,                        Abraham K C%Wai%awai@hku.hk%2,                        Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                        Guy%Harling%NULL%2,                        Guy%Harling%NULL%0,                        Zahra%Reynolds%NULL%2,                        Zahra%Reynolds%NULL%0,                        Rebecca F.%Gilbert%NULL%1,                        Sebastien%Haneuse%NULL%2,                        Sebastien%Haneuse%NULL%0,                        Atheendar S.%Venkataramani%NULL%2,                        Atheendar S.%Venkataramani%NULL%0,                        Alexander C.%Tsai%NULL%2,                        Alexander C.%Tsai%NULL%0,                        Donald A.%Redelmeier%NULL%3,                        Donald A.%Redelmeier%NULL%0,                        Donald A.%Redelmeier%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                         A.% Dsida%null%1,                         D.% Zastrow%null%1,                         B.% Harper%null%1,                         A.% Morris%null%1,                         A. % Santella%null%1,      B.%Krishnamachari%null%1,      A.% Dsida%null%1,      D.% Zastrow%null%1,      B.% Harper%null%1,      A.% Morris%null%1,      A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                         C. % Bjornskov%null%1,      K. P.%Kepp%null%1,      C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                        Jie%Gao%NULL%1,                        Hua%Wang%NULL%1,                        Xiao-long%Wu%NULL%1,                        Qin-fang%Yuan%NULL%1,                        Fei-yu%Guo%NULL%1,                        Zhi-jie%Zhang%NULL%1,                        Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                        Sheikh Taslim%Ali%NULL%0,                        Tiffany W Y%Ng%NULL%0,                        Tim K%Tsang%NULL%0,                        Julian C M%Li%NULL%0,                        Min Whui%Fong%NULL%0,                        Qiuyan%Liao%NULL%0,                        Mike YW%Kwan%NULL%0,                        So Lun%Lee%NULL%0,                        Susan S%Chiu%NULL%0,                        Joseph T%Wu%NULL%0,                        Peng%Wu%pengwu@hku.hk%0,                        Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                        Shuk-Ching%Wong%NULL%1,                        Vivien Wai-Man%Chuang%NULL%1,                        Simon Yung-Chun%So%NULL%1,                        Jonathan Hon-Kwan%Chen%NULL%1,                        Siddharth%Sridhar%NULL%1,                        Kelvin Kai-Wang%To%NULL%0,                        Jasper Fuk-Woo%Chan%NULL%0,                        Ivan Fan-Ngai%Hung%NULL%0,                        Pak-Leung%Ho%NULL%1,                        Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                        Pham Nguyen Hong%Ngoc%NULL%1,                        Nguyen Minh%Hai%NULL%1,                        Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                        Hak Jun%Hyun%NULL%1,                        Jin Gu%Yun%NULL%1,                        Ji Yun%Noh%NULL%1,                        Hee Jin%Cheong%NULL%0,                        Woo Joo%Kim%NULL%0,                        Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                        Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                        Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                        Faris Jamal%AlMutairi%faris11300@gmail.com%1,                        Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                        David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                         Nikki%Lam%NULL%2,                         Nikki%Lam%NULL%0,                         Benjamin%Woo%NULL%1,                         Kylie%Zeng%kzeng2@student.touro.edu%2,                         Kylie%Zeng%kzeng2@student.touro.edu%0,                         Stephanie N%Bernardo%NULL%2,                         Stephanie N%Bernardo%NULL%0,                         Weldon E%Havins%NULL%2,                         Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                         Guy%Fagherazzi%NULL%1,                         Juan%Yang%NULL%0,                         Juan%Yang%NULL%0,                         Claire%Wang%NULL%1,                         Céline%Mavrot%NULL%1,                         Carlos K H%Wong%NULL%2,                         Carlos K H%Wong%NULL%0,                         Janet Y H%Wong%NULL%2,                         Janet Y H%Wong%NULL%0,                         Eric H M%Tang%NULL%2,                         Eric H M%Tang%NULL%0,                         Chi Ho%Au%NULL%2,                         Chi Ho%Au%NULL%0,                         Kristy T K%Lau%NULL%2,                         Kristy T K%Lau%NULL%0,                         Abraham K C%Wai%awai@hku.hk%2,                         Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                         Guy%Harling%NULL%2,                         Guy%Harling%NULL%0,                         Zahra%Reynolds%NULL%2,                         Zahra%Reynolds%NULL%0,                         Rebecca F.%Gilbert%NULL%1,                         Sebastien%Haneuse%NULL%2,                         Sebastien%Haneuse%NULL%0,                         Atheendar S.%Venkataramani%NULL%2,                         Atheendar S.%Venkataramani%NULL%0,                         Alexander C.%Tsai%NULL%2,                         Alexander C.%Tsai%NULL%0,                         Donald A.%Redelmeier%NULL%3,                         Donald A.%Redelmeier%NULL%0,                         Donald A.%Redelmeier%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                          A.% Dsida%null%1,                          D.% Zastrow%null%1,                          B.% Harper%null%1,                          A.% Morris%null%1,                          A. % Santella%null%1,       B.%Krishnamachari%null%1,       A.% Dsida%null%1,       D.% Zastrow%null%1,       B.% Harper%null%1,       A.% Morris%null%1,       A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                          C. % Bjornskov%null%1,       K. P.%Kepp%null%1,       C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                         Jie%Gao%NULL%1,                         Hua%Wang%NULL%1,                         Xiao-long%Wu%NULL%1,                         Qin-fang%Yuan%NULL%1,                         Fei-yu%Guo%NULL%1,                         Zhi-jie%Zhang%NULL%1,                         Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                         Sheikh Taslim%Ali%NULL%0,                         Tiffany W Y%Ng%NULL%0,                         Tim K%Tsang%NULL%0,                         Julian C M%Li%NULL%0,                         Min Whui%Fong%NULL%0,                         Qiuyan%Liao%NULL%0,                         Mike YW%Kwan%NULL%0,                         So Lun%Lee%NULL%0,                         Susan S%Chiu%NULL%0,                         Joseph T%Wu%NULL%0,                         Peng%Wu%pengwu@hku.hk%0,                         Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                         Shuk-Ching%Wong%NULL%1,                         Vivien Wai-Man%Chuang%NULL%1,                         Simon Yung-Chun%So%NULL%1,                         Jonathan Hon-Kwan%Chen%NULL%1,                         Siddharth%Sridhar%NULL%1,                         Kelvin Kai-Wang%To%NULL%0,                         Jasper Fuk-Woo%Chan%NULL%0,                         Ivan Fan-Ngai%Hung%NULL%0,                         Pak-Leung%Ho%NULL%1,                         Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                         Pham Nguyen Hong%Ngoc%NULL%1,                         Nguyen Minh%Hai%NULL%1,                         Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                         Hak Jun%Hyun%NULL%1,                         Jin Gu%Yun%NULL%1,                         Ji Yun%Noh%NULL%1,                         Hee Jin%Cheong%NULL%0,                         Woo Joo%Kim%NULL%0,                         Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                         Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                         Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                         Faris Jamal%AlMutairi%faris11300@gmail.com%1,                         Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                         David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1502,6 +1679,9 @@
       <c r="I1" t="s">
         <v>108</v>
       </c>
+      <c r="J1" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1517,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1530,6 +1710,9 @@
       </c>
       <c r="I2" t="s">
         <v>296</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3">
@@ -1546,7 +1729,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1559,6 +1742,9 @@
       </c>
       <c r="I3" t="s">
         <v>296</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -1575,7 +1761,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1588,6 +1774,9 @@
       </c>
       <c r="I4" t="s">
         <v>296</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -1604,7 +1793,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>375</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1617,6 +1806,9 @@
       </c>
       <c r="I5" t="s">
         <v>300</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1825,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1646,6 +1838,9 @@
       </c>
       <c r="I6" t="s">
         <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -1662,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>317</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1671,10 +1866,13 @@
         <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>166</v>
+        <v>331</v>
       </c>
       <c r="I7" t="s">
-        <v>303</v>
+        <v>116</v>
+      </c>
+      <c r="J7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="8">
@@ -1691,7 +1889,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>318</v>
+        <v>377</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1704,6 +1902,9 @@
       </c>
       <c r="I8" t="s">
         <v>305</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -1720,7 +1921,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1733,6 +1934,9 @@
       </c>
       <c r="I9" t="s">
         <v>305</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1749,7 +1953,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1762,6 +1966,9 @@
       </c>
       <c r="I10" t="s">
         <v>305</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -1778,7 +1985,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -1791,6 +1998,9 @@
       </c>
       <c r="I11" t="s">
         <v>305</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1807,7 +2017,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -1820,6 +2030,9 @@
       </c>
       <c r="I12" t="s">
         <v>305</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1836,7 +2049,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1849,6 +2062,9 @@
       </c>
       <c r="I13" t="s">
         <v>311</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14">

--- a/Covid_19_Dataset_and_References/References/103.xlsx
+++ b/Covid_19_Dataset_and_References/References/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="405">
   <si>
     <t>Doi</t>
   </si>
@@ -1313,6 +1313,72 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                         Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                         Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                         Faris Jamal%AlMutairi%faris11300@gmail.com%1,                         Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                         David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                          Nikki%Lam%NULL%2,                          Nikki%Lam%NULL%0,                          Benjamin%Woo%NULL%1,                          Kylie%Zeng%kzeng2@student.touro.edu%2,                          Kylie%Zeng%kzeng2@student.touro.edu%0,                          Stephanie N%Bernardo%NULL%2,                          Stephanie N%Bernardo%NULL%0,                          Weldon E%Havins%NULL%2,                          Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                          Guy%Fagherazzi%NULL%1,                          Juan%Yang%NULL%0,                          Juan%Yang%NULL%0,                          Claire%Wang%NULL%1,                          Céline%Mavrot%NULL%1,                          Carlos K H%Wong%NULL%2,                          Carlos K H%Wong%NULL%0,                          Janet Y H%Wong%NULL%2,                          Janet Y H%Wong%NULL%0,                          Eric H M%Tang%NULL%2,                          Eric H M%Tang%NULL%0,                          Chi Ho%Au%NULL%2,                          Chi Ho%Au%NULL%0,                          Kristy T K%Lau%NULL%2,                          Kristy T K%Lau%NULL%0,                          Abraham K C%Wai%awai@hku.hk%2,                          Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                          Guy%Harling%NULL%2,                          Guy%Harling%NULL%0,                          Zahra%Reynolds%NULL%2,                          Zahra%Reynolds%NULL%0,                          Rebecca F.%Gilbert%NULL%1,                          Sebastien%Haneuse%NULL%2,                          Sebastien%Haneuse%NULL%0,                          Atheendar S.%Venkataramani%NULL%2,                          Atheendar S.%Venkataramani%NULL%0,                          Alexander C.%Tsai%NULL%2,                          Alexander C.%Tsai%NULL%0,                          Donald A.%Redelmeier%NULL%3,                          Donald A.%Redelmeier%NULL%0,                          Donald A.%Redelmeier%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                           A.% Dsida%null%1,                           D.% Zastrow%null%1,                           B.% Harper%null%1,                           A.% Morris%null%1,                           A. % Santella%null%1,        B.%Krishnamachari%null%1,        A.% Dsida%null%1,        D.% Zastrow%null%1,        B.% Harper%null%1,        A.% Morris%null%1,        A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                           C. % Bjornskov%null%1,        K. P.%Kepp%null%1,        C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                          Jie%Gao%NULL%1,                          Hua%Wang%NULL%1,                          Xiao-long%Wu%NULL%1,                          Qin-fang%Yuan%NULL%1,                          Fei-yu%Guo%NULL%1,                          Zhi-jie%Zhang%NULL%1,                          Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                          Sheikh Taslim%Ali%NULL%0,                          Tiffany W Y%Ng%NULL%0,                          Tim K%Tsang%NULL%0,                          Julian C M%Li%NULL%0,                          Min Whui%Fong%NULL%0,                          Qiuyan%Liao%NULL%0,                          Mike YW%Kwan%NULL%0,                          So Lun%Lee%NULL%0,                          Susan S%Chiu%NULL%0,                          Joseph T%Wu%NULL%0,                          Peng%Wu%pengwu@hku.hk%0,                          Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                          Shuk-Ching%Wong%NULL%1,                          Vivien Wai-Man%Chuang%NULL%1,                          Simon Yung-Chun%So%NULL%1,                          Jonathan Hon-Kwan%Chen%NULL%1,                          Siddharth%Sridhar%NULL%1,                          Kelvin Kai-Wang%To%NULL%0,                          Jasper Fuk-Woo%Chan%NULL%0,                          Ivan Fan-Ngai%Hung%NULL%0,                          Pak-Leung%Ho%NULL%1,                          Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                          Pham Nguyen Hong%Ngoc%NULL%1,                          Nguyen Minh%Hai%NULL%1,                          Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                          Hak Jun%Hyun%NULL%1,                          Jin Gu%Yun%NULL%1,                          Ji Yun%Noh%NULL%1,                          Hee Jin%Cheong%NULL%0,                          Woo Joo%Kim%NULL%0,                          Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                          Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                          Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                          Faris Jamal%AlMutairi%faris11300@gmail.com%1,                          Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                          David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                           Nikki%Lam%NULL%2,                           Nikki%Lam%NULL%0,                           Benjamin%Woo%NULL%1,                           Kylie%Zeng%kzeng2@student.touro.edu%2,                           Kylie%Zeng%kzeng2@student.touro.edu%0,                           Stephanie N%Bernardo%NULL%2,                           Stephanie N%Bernardo%NULL%0,                           Weldon E%Havins%NULL%2,                           Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                           Guy%Fagherazzi%NULL%1,                           Juan%Yang%NULL%0,                           Juan%Yang%NULL%0,                           Claire%Wang%NULL%1,                           Céline%Mavrot%NULL%1,                           Carlos K H%Wong%NULL%2,                           Carlos K H%Wong%NULL%0,                           Janet Y H%Wong%NULL%2,                           Janet Y H%Wong%NULL%0,                           Eric H M%Tang%NULL%2,                           Eric H M%Tang%NULL%0,                           Chi Ho%Au%NULL%2,                           Chi Ho%Au%NULL%0,                           Kristy T K%Lau%NULL%2,                           Kristy T K%Lau%NULL%0,                           Abraham K C%Wai%awai@hku.hk%2,                           Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                           Guy%Harling%NULL%2,                           Guy%Harling%NULL%0,                           Zahra%Reynolds%NULL%2,                           Zahra%Reynolds%NULL%0,                           Rebecca F.%Gilbert%NULL%1,                           Sebastien%Haneuse%NULL%2,                           Sebastien%Haneuse%NULL%0,                           Atheendar S.%Venkataramani%NULL%2,                           Atheendar S.%Venkataramani%NULL%0,                           Alexander C.%Tsai%NULL%2,                           Alexander C.%Tsai%NULL%0,                           Donald A.%Redelmeier%NULL%3,                           Donald A.%Redelmeier%NULL%0,                           Donald A.%Redelmeier%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ B.%Krishnamachari%null%1,                            A.% Dsida%null%1,                            D.% Zastrow%null%1,                            B.% Harper%null%1,                            A.% Morris%null%1,                            A. % Santella%null%1,         B.%Krishnamachari%null%1,         A.% Dsida%null%1,         D.% Zastrow%null%1,         B.% Harper%null%1,         A.% Morris%null%1,         A. % Santella%null%1]</t>
+  </si>
+  <si>
+    <t>[ K. P.%Kepp%null%1,                            C. % Bjornskov%null%1,         K. P.%Kepp%null%1,         C. % Bjornskov%null%1]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                           Jie%Gao%NULL%1,                           Hua%Wang%NULL%1,                           Xiao-long%Wu%NULL%1,                           Qin-fang%Yuan%NULL%1,                           Fei-yu%Guo%NULL%1,                           Zhi-jie%Zhang%NULL%1,                           Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                           Sheikh Taslim%Ali%NULL%0,                           Tiffany W Y%Ng%NULL%0,                           Tim K%Tsang%NULL%0,                           Julian C M%Li%NULL%0,                           Min Whui%Fong%NULL%0,                           Qiuyan%Liao%NULL%0,                           Mike YW%Kwan%NULL%0,                           So Lun%Lee%NULL%0,                           Susan S%Chiu%NULL%0,                           Joseph T%Wu%NULL%0,                           Peng%Wu%pengwu@hku.hk%0,                           Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                           Shuk-Ching%Wong%NULL%1,                           Vivien Wai-Man%Chuang%NULL%1,                           Simon Yung-Chun%So%NULL%1,                           Jonathan Hon-Kwan%Chen%NULL%1,                           Siddharth%Sridhar%NULL%1,                           Kelvin Kai-Wang%To%NULL%0,                           Jasper Fuk-Woo%Chan%NULL%0,                           Ivan Fan-Ngai%Hung%NULL%0,                           Pak-Leung%Ho%NULL%1,                           Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                           Pham Nguyen Hong%Ngoc%NULL%1,                           Nguyen Minh%Hai%NULL%1,                           Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                           Hak Jun%Hyun%NULL%1,                           Jin Gu%Yun%NULL%1,                           Ji Yun%Noh%NULL%1,                           Hee Jin%Cheong%NULL%0,                           Woo Joo%Kim%NULL%0,                           Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                           Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                           Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                           Faris Jamal%AlMutairi%faris11300@gmail.com%1,                           Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                           David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1763,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1729,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1761,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1793,7 +1859,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1825,7 +1891,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1857,7 +1923,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1889,7 +1955,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1921,7 +1987,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1953,7 +2019,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -1985,7 +2051,7 @@
         <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2017,7 +2083,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -2049,7 +2115,7 @@
         <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
